--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -3041,13 +3041,17 @@
         <v>30.715</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.4</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3082,8 +3086,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +3121,22 @@
         <v>30.69</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3146,13 +3164,17 @@
         <v>30.675</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>30.7</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3181,14 +3203,22 @@
         <v>30.65</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3216,14 +3246,22 @@
         <v>30.635</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3296,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="K83" t="n">
         <v>30.3</v>
@@ -3339,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="K84" t="n">
         <v>30.3</v>
@@ -3419,14 +3457,12 @@
         <v>30.56</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>30.3</v>
       </c>
@@ -3505,14 +3541,12 @@
         <v>30.535</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>30.3</v>
       </c>
@@ -3548,14 +3582,12 @@
         <v>30.535</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>30.3</v>
       </c>
@@ -3591,14 +3623,12 @@
         <v>30.51</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>30.3</v>
       </c>
@@ -3634,14 +3664,12 @@
         <v>30.50500000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>30.3</v>
       </c>
@@ -3677,14 +3705,12 @@
         <v>30.50500000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>30.3</v>
       </c>
@@ -3720,14 +3746,12 @@
         <v>30.52</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>30.3</v>
       </c>
@@ -3763,14 +3787,12 @@
         <v>30.51000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>30.3</v>
       </c>
@@ -3806,14 +3828,12 @@
         <v>30.51000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>30.3</v>
       </c>
@@ -3849,14 +3869,12 @@
         <v>30.50500000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>30.3</v>
       </c>
@@ -3892,14 +3910,12 @@
         <v>30.50000000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>30.3</v>
       </c>
@@ -3935,14 +3951,12 @@
         <v>30.485</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>30.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>30.3</v>
       </c>
@@ -3978,14 +3992,12 @@
         <v>30.495</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>30.3</v>
       </c>
@@ -4021,14 +4033,12 @@
         <v>30.50500000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>30.3</v>
       </c>
@@ -4064,14 +4074,12 @@
         <v>30.53000000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>30.3</v>
       </c>
@@ -4107,14 +4115,12 @@
         <v>30.54500000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>30.3</v>
       </c>
@@ -4150,14 +4156,12 @@
         <v>30.55500000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>30.3</v>
       </c>
@@ -4193,14 +4197,12 @@
         <v>30.56500000000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>30.3</v>
       </c>
@@ -4236,14 +4238,12 @@
         <v>30.57500000000002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>30.3</v>
       </c>
@@ -4279,14 +4279,12 @@
         <v>30.58500000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>30.3</v>
       </c>
@@ -4322,14 +4320,12 @@
         <v>30.59500000000002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>30.3</v>
       </c>
@@ -4365,14 +4361,12 @@
         <v>30.59500000000002</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>30.3</v>
       </c>
@@ -4408,14 +4402,12 @@
         <v>30.59000000000002</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>30.3</v>
       </c>
@@ -4451,14 +4443,12 @@
         <v>30.61000000000003</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>30.3</v>
       </c>

--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>970.0312</v>
       </c>
       <c r="G2" t="n">
-        <v>31.91500000000001</v>
+        <v>31.11333333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>31.8</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>31.92000000000001</v>
+        <v>31.10333333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C4" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F4" t="n">
-        <v>6340.237</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>31.91000000000001</v>
+        <v>31.10333333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>31.7</v>
       </c>
       <c r="F5" t="n">
-        <v>16695.8211</v>
+        <v>6340.237</v>
       </c>
       <c r="G5" t="n">
-        <v>31.90000000000002</v>
+        <v>31.12333333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C6" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E6" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>16695.8211</v>
       </c>
       <c r="G6" t="n">
-        <v>31.90000000000002</v>
+        <v>31.13666666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="D7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E7" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="F7" t="n">
-        <v>35387.8287</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>31.89000000000002</v>
+        <v>31.16000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>31.7</v>
       </c>
       <c r="F8" t="n">
-        <v>15421.2317</v>
+        <v>35387.8287</v>
       </c>
       <c r="G8" t="n">
-        <v>31.87500000000002</v>
+        <v>31.18166666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>31.7</v>
       </c>
       <c r="F9" t="n">
-        <v>17671.6398</v>
+        <v>15421.2317</v>
       </c>
       <c r="G9" t="n">
-        <v>31.86000000000002</v>
+        <v>31.20333333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,19 +725,23 @@
         <v>31.7</v>
       </c>
       <c r="F10" t="n">
-        <v>7506.1433</v>
+        <v>17671.6398</v>
       </c>
       <c r="G10" t="n">
-        <v>31.83500000000003</v>
+        <v>31.22666666666668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.7</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -748,32 +752,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C11" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D11" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E11" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F11" t="n">
-        <v>13141.7886</v>
+        <v>7506.1433</v>
       </c>
       <c r="G11" t="n">
-        <v>31.83000000000002</v>
+        <v>31.25000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +795,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>13141.7886</v>
       </c>
       <c r="G12" t="n">
-        <v>31.83000000000002</v>
+        <v>31.27500000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +819,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -830,10 +848,10 @@
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>38123</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>31.83000000000002</v>
+        <v>31.30333333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>3286</v>
+        <v>38123</v>
       </c>
       <c r="G14" t="n">
-        <v>31.83000000000002</v>
+        <v>31.33000000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C15" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="D15" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F15" t="n">
-        <v>76414.6559</v>
+        <v>3286</v>
       </c>
       <c r="G15" t="n">
-        <v>31.84000000000002</v>
+        <v>31.35666666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,28 +941,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="D16" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="E16" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>64441.8265</v>
+        <v>76414.6559</v>
       </c>
       <c r="G16" t="n">
-        <v>31.86500000000003</v>
+        <v>31.38666666666669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -970,10 +988,10 @@
         <v>32.2</v>
       </c>
       <c r="F17" t="n">
-        <v>51756.0096</v>
+        <v>64441.8265</v>
       </c>
       <c r="G17" t="n">
-        <v>31.88000000000003</v>
+        <v>31.42166666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="C18" t="n">
         <v>32.3</v>
@@ -1002,19 +1020,19 @@
         <v>32.3</v>
       </c>
       <c r="E18" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="F18" t="n">
-        <v>8332.9377</v>
+        <v>51756.0096</v>
       </c>
       <c r="G18" t="n">
-        <v>31.89500000000003</v>
+        <v>31.45666666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1031,25 +1049,25 @@
         <v>32.3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="D19" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="E19" t="n">
         <v>32.3</v>
       </c>
       <c r="F19" t="n">
-        <v>49670.0813</v>
+        <v>8332.9377</v>
       </c>
       <c r="G19" t="n">
-        <v>31.92500000000002</v>
+        <v>31.49333333333335</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,28 +1081,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32</v>
+        <v>32.3</v>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>32.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2047.4894</v>
+        <v>49670.0813</v>
       </c>
       <c r="G20" t="n">
-        <v>31.92500000000002</v>
+        <v>31.52833333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,28 +1116,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
         <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>27302.8842</v>
+        <v>2047.4894</v>
       </c>
       <c r="G21" t="n">
-        <v>31.93000000000002</v>
+        <v>31.55500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1133,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="C22" t="n">
         <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>11631.1738</v>
+        <v>27302.8842</v>
       </c>
       <c r="G22" t="n">
-        <v>31.94000000000003</v>
+        <v>31.58166666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1198,10 @@
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>3200</v>
+        <v>11631.1738</v>
       </c>
       <c r="G23" t="n">
-        <v>31.95000000000003</v>
+        <v>31.60833333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1221,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
-        <v>54917.3144</v>
+        <v>3200</v>
       </c>
       <c r="G24" t="n">
-        <v>31.96000000000003</v>
+        <v>31.63500000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D25" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F25" t="n">
-        <v>800.7866</v>
+        <v>54917.3144</v>
       </c>
       <c r="G25" t="n">
-        <v>31.96000000000003</v>
+        <v>31.65500000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1303,10 @@
         <v>31.7</v>
       </c>
       <c r="F26" t="n">
-        <v>4473.161</v>
+        <v>800.7866</v>
       </c>
       <c r="G26" t="n">
-        <v>31.95000000000003</v>
+        <v>31.67166666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1338,10 @@
         <v>31.7</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>4473.161</v>
       </c>
       <c r="G27" t="n">
-        <v>31.95000000000003</v>
+        <v>31.69166666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F28" t="n">
-        <v>5780.25</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>31.96500000000002</v>
+        <v>31.71166666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>170</v>
+        <v>5780.25</v>
       </c>
       <c r="G29" t="n">
-        <v>31.96500000000002</v>
+        <v>31.74166666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C30" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D30" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E30" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F30" t="n">
-        <v>395.7718</v>
+        <v>170</v>
       </c>
       <c r="G30" t="n">
-        <v>31.97000000000002</v>
+        <v>31.76166666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1466,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C31" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D31" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E31" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F31" t="n">
-        <v>170</v>
+        <v>395.7718</v>
       </c>
       <c r="G31" t="n">
-        <v>31.96000000000003</v>
+        <v>31.78333333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C32" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D32" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E32" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G32" t="n">
-        <v>31.95000000000002</v>
+        <v>31.80000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C33" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="D33" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E33" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G33" t="n">
-        <v>31.94500000000002</v>
+        <v>31.81833333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C34" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D34" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E34" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F34" t="n">
-        <v>891.3841</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>31.94000000000002</v>
+        <v>31.83666666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1618,10 @@
         <v>31.8</v>
       </c>
       <c r="F35" t="n">
-        <v>7408.4558</v>
+        <v>891.3841</v>
       </c>
       <c r="G35" t="n">
-        <v>31.93000000000002</v>
+        <v>31.85000000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1653,10 @@
         <v>31.8</v>
       </c>
       <c r="F36" t="n">
-        <v>27773</v>
+        <v>7408.4558</v>
       </c>
       <c r="G36" t="n">
-        <v>31.91000000000001</v>
+        <v>31.85833333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1679,19 @@
         <v>31.8</v>
       </c>
       <c r="C37" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D37" t="n">
         <v>31.8</v>
       </c>
       <c r="E37" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F37" t="n">
-        <v>55440.6774</v>
+        <v>27773</v>
       </c>
       <c r="G37" t="n">
-        <v>31.89000000000001</v>
+        <v>31.86666666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C38" t="n">
         <v>31.7</v>
       </c>
       <c r="D38" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E38" t="n">
         <v>31.7</v>
       </c>
       <c r="F38" t="n">
-        <v>36777.3917</v>
+        <v>55440.6774</v>
       </c>
       <c r="G38" t="n">
-        <v>31.86000000000001</v>
+        <v>31.87333333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1758,10 @@
         <v>31.7</v>
       </c>
       <c r="F39" t="n">
-        <v>22952.6448</v>
+        <v>36777.3917</v>
       </c>
       <c r="G39" t="n">
-        <v>31.83000000000002</v>
+        <v>31.88000000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C40" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D40" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E40" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F40" t="n">
-        <v>1344.0566</v>
+        <v>22952.6448</v>
       </c>
       <c r="G40" t="n">
-        <v>31.82000000000001</v>
+        <v>31.88333333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="C41" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="E41" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="F41" t="n">
-        <v>57387.6822</v>
+        <v>1344.0566</v>
       </c>
       <c r="G41" t="n">
-        <v>31.79500000000002</v>
+        <v>31.88500000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C42" t="n">
         <v>31.5</v>
       </c>
-      <c r="C42" t="n">
-        <v>31.8</v>
-      </c>
       <c r="D42" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="E42" t="n">
         <v>31.5</v>
       </c>
       <c r="F42" t="n">
-        <v>9572.9162</v>
+        <v>57387.6822</v>
       </c>
       <c r="G42" t="n">
-        <v>31.77000000000002</v>
+        <v>31.88000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1886,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="C43" t="n">
         <v>31.8</v>
@@ -1877,13 +1895,13 @@
         <v>31.8</v>
       </c>
       <c r="E43" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="F43" t="n">
-        <v>11175</v>
+        <v>9572.9162</v>
       </c>
       <c r="G43" t="n">
-        <v>31.76000000000001</v>
+        <v>31.88166666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1933,10 @@
         <v>31.8</v>
       </c>
       <c r="F44" t="n">
-        <v>150.9926</v>
+        <v>11175</v>
       </c>
       <c r="G44" t="n">
-        <v>31.75500000000001</v>
+        <v>31.88000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1968,10 @@
         <v>31.8</v>
       </c>
       <c r="F45" t="n">
-        <v>15725.7232</v>
+        <v>150.9926</v>
       </c>
       <c r="G45" t="n">
-        <v>31.76000000000001</v>
+        <v>31.87833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1991,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="C46" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="D46" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="F46" t="n">
-        <v>27873.1645</v>
+        <v>15725.7232</v>
       </c>
       <c r="G46" t="n">
-        <v>31.75500000000001</v>
+        <v>31.87666666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2038,10 @@
         <v>31.6</v>
       </c>
       <c r="F47" t="n">
-        <v>60</v>
+        <v>27873.1645</v>
       </c>
       <c r="G47" t="n">
-        <v>31.75000000000001</v>
+        <v>31.87166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2064,19 @@
         <v>31.6</v>
       </c>
       <c r="C48" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="D48" t="n">
         <v>31.6</v>
       </c>
       <c r="E48" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="F48" t="n">
-        <v>116639.441</v>
+        <v>60</v>
       </c>
       <c r="G48" t="n">
-        <v>31.73000000000001</v>
+        <v>31.86500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2096,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="C49" t="n">
         <v>31.5</v>
       </c>
       <c r="D49" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="E49" t="n">
         <v>31.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1054.0013</v>
+        <v>116639.441</v>
       </c>
       <c r="G49" t="n">
-        <v>31.72000000000001</v>
+        <v>31.85833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2134,19 @@
         <v>31.5</v>
       </c>
       <c r="C50" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="D50" t="n">
         <v>31.5</v>
       </c>
       <c r="E50" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="F50" t="n">
-        <v>95153.129</v>
+        <v>1054.0013</v>
       </c>
       <c r="G50" t="n">
-        <v>31.70500000000001</v>
+        <v>31.85166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="C51" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="D51" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="E51" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="F51" t="n">
-        <v>241050.6803</v>
+        <v>95153.129</v>
       </c>
       <c r="G51" t="n">
-        <v>31.68000000000001</v>
+        <v>31.83666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="C52" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="E52" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="F52" t="n">
-        <v>50829.0362</v>
+        <v>241050.6803</v>
       </c>
       <c r="G52" t="n">
-        <v>31.63500000000001</v>
+        <v>31.82</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="C53" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D53" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E53" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="F53" t="n">
-        <v>117678.4023</v>
+        <v>50829.0362</v>
       </c>
       <c r="G53" t="n">
-        <v>31.58000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="C54" t="n">
-        <v>31.4</v>
+        <v>30.7</v>
       </c>
       <c r="D54" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="E54" t="n">
-        <v>31.4</v>
+        <v>30.7</v>
       </c>
       <c r="F54" t="n">
-        <v>400.828</v>
+        <v>117678.4023</v>
       </c>
       <c r="G54" t="n">
-        <v>31.56000000000001</v>
+        <v>31.77833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
       <c r="C55" t="n">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
       <c r="D55" t="n">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
       <c r="E55" t="n">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
       <c r="F55" t="n">
-        <v>17312.7461</v>
+        <v>400.828</v>
       </c>
       <c r="G55" t="n">
-        <v>31.49500000000001</v>
+        <v>31.77</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="D56" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="F56" t="n">
-        <v>5210.129</v>
+        <v>17312.7461</v>
       </c>
       <c r="G56" t="n">
-        <v>31.45500000000001</v>
+        <v>31.74833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="E57" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="F57" t="n">
-        <v>29173.3224</v>
+        <v>5210.129</v>
       </c>
       <c r="G57" t="n">
-        <v>31.40500000000001</v>
+        <v>31.73666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2414,19 @@
         <v>30.8</v>
       </c>
       <c r="C58" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D58" t="n">
         <v>30.8</v>
       </c>
       <c r="E58" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="F58" t="n">
-        <v>49687.43</v>
+        <v>29173.3224</v>
       </c>
       <c r="G58" t="n">
-        <v>31.36000000000001</v>
+        <v>31.71833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C59" t="n">
         <v>30.7</v>
       </c>
-      <c r="C59" t="n">
-        <v>30.5</v>
-      </c>
       <c r="D59" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E59" t="n">
         <v>30.7</v>
       </c>
-      <c r="E59" t="n">
-        <v>30.5</v>
-      </c>
       <c r="F59" t="n">
-        <v>70405.33930000001</v>
+        <v>49687.43</v>
       </c>
       <c r="G59" t="n">
-        <v>31.31000000000001</v>
+        <v>31.69666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="C60" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="D60" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="E60" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10.3236</v>
+        <v>70405.33930000001</v>
       </c>
       <c r="G60" t="n">
-        <v>31.26500000000001</v>
+        <v>31.67666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="C61" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="D61" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="E61" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>10.3236</v>
       </c>
       <c r="G61" t="n">
-        <v>31.21500000000001</v>
+        <v>31.65833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2563,10 @@
         <v>30.6</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>31.17000000000001</v>
+        <v>31.635</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2589,19 @@
         <v>30.6</v>
       </c>
       <c r="C63" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="D63" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="E63" t="n">
         <v>30.6</v>
       </c>
       <c r="F63" t="n">
-        <v>2478.7963</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>31.11000000000001</v>
+        <v>31.615</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,32 +2621,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="C64" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D64" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E64" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>2478.7963</v>
       </c>
       <c r="G64" t="n">
-        <v>31.06000000000001</v>
+        <v>31.59666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>30.6</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2674,10 @@
         <v>30.8</v>
       </c>
       <c r="F65" t="n">
-        <v>7753.5064</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>31.01000000000001</v>
+        <v>31.58166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2687,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,32 +2701,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="C66" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="D66" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="E66" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>7753.5064</v>
       </c>
       <c r="G66" t="n">
-        <v>30.97500000000001</v>
+        <v>31.56666666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>30.8</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2742,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="C67" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="D67" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E67" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>30.93500000000001</v>
+        <v>31.55</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2767,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2781,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="C68" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="D68" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="E68" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>8000</v>
       </c>
       <c r="G68" t="n">
-        <v>30.90000000000001</v>
+        <v>31.53499999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2806,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2820,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="C69" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="D69" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E69" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="F69" t="n">
-        <v>36.4936</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>30.865</v>
+        <v>31.52166666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2845,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +2871,10 @@
         <v>30.8</v>
       </c>
       <c r="F70" t="n">
-        <v>324.6753</v>
+        <v>36.4936</v>
       </c>
       <c r="G70" t="n">
-        <v>30.83</v>
+        <v>31.50666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2884,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2910,10 @@
         <v>30.8</v>
       </c>
       <c r="F71" t="n">
-        <v>10407.5</v>
+        <v>324.6753</v>
       </c>
       <c r="G71" t="n">
-        <v>30.81</v>
+        <v>31.49166666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2923,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2937,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="C72" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D72" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="E72" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="F72" t="n">
-        <v>7377.0096</v>
+        <v>10407.5</v>
       </c>
       <c r="G72" t="n">
-        <v>30.79</v>
+        <v>31.47333333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2962,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +2988,10 @@
         <v>30.5</v>
       </c>
       <c r="F73" t="n">
-        <v>38027.6925</v>
+        <v>7377.0096</v>
       </c>
       <c r="G73" t="n">
-        <v>30.775</v>
+        <v>31.44833333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3001,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3015,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C74" t="n">
         <v>30.5</v>
       </c>
       <c r="D74" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E74" t="n">
         <v>30.5</v>
       </c>
       <c r="F74" t="n">
-        <v>4265.699</v>
+        <v>38027.6925</v>
       </c>
       <c r="G74" t="n">
-        <v>30.745</v>
+        <v>31.42333333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3040,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3054,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C75" t="n">
         <v>30.5</v>
       </c>
-      <c r="C75" t="n">
-        <v>30.4</v>
-      </c>
       <c r="D75" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E75" t="n">
         <v>30.5</v>
       </c>
-      <c r="E75" t="n">
-        <v>30.4</v>
-      </c>
       <c r="F75" t="n">
-        <v>44948.9923</v>
+        <v>4265.699</v>
       </c>
       <c r="G75" t="n">
-        <v>30.745</v>
+        <v>31.39999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3079,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,36 +3093,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="C76" t="n">
         <v>30.4</v>
       </c>
       <c r="D76" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="E76" t="n">
         <v>30.4</v>
       </c>
       <c r="F76" t="n">
-        <v>47200.3153</v>
+        <v>44948.9923</v>
       </c>
       <c r="G76" t="n">
-        <v>30.715</v>
+        <v>31.37166666666666</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K76" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3074,10 +3144,10 @@
         <v>30.4</v>
       </c>
       <c r="F77" t="n">
-        <v>3835.5818</v>
+        <v>47200.3153</v>
       </c>
       <c r="G77" t="n">
-        <v>30.695</v>
+        <v>31.33999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3086,12 +3156,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>30.4</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3103,38 +3171,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C78" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D78" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E78" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F78" t="n">
-        <v>1950.5537</v>
+        <v>3835.5818</v>
       </c>
       <c r="G78" t="n">
-        <v>30.69</v>
+        <v>31.30833333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>30.4</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3146,36 +3210,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="C79" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="D79" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="E79" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="F79" t="n">
-        <v>4441.9218</v>
+        <v>1950.5537</v>
       </c>
       <c r="G79" t="n">
-        <v>30.675</v>
+        <v>31.28166666666666</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K79" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3197,26 +3261,22 @@
         <v>30.4</v>
       </c>
       <c r="F80" t="n">
-        <v>2531.7745</v>
+        <v>4441.9218</v>
       </c>
       <c r="G80" t="n">
-        <v>30.65</v>
+        <v>31.24833333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3228,38 +3288,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="C81" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="D81" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E81" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="F81" t="n">
-        <v>31059.2739</v>
+        <v>2531.7745</v>
       </c>
       <c r="G81" t="n">
-        <v>30.635</v>
+        <v>31.22166666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3283,24 +3339,24 @@
         <v>30.3</v>
       </c>
       <c r="F82" t="n">
-        <v>2226.3382</v>
+        <v>31059.2739</v>
       </c>
       <c r="G82" t="n">
-        <v>30.61999999999999</v>
+        <v>31.19333333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K82" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3310,38 +3366,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C83" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="D83" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="E83" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="F83" t="n">
-        <v>7949.7651</v>
+        <v>2226.3382</v>
       </c>
       <c r="G83" t="n">
-        <v>30.60999999999999</v>
+        <v>31.165</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -3353,38 +3405,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="C84" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D84" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="E84" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F84" t="n">
-        <v>2220.9609</v>
+        <v>7949.7651</v>
       </c>
       <c r="G84" t="n">
-        <v>30.59499999999999</v>
+        <v>31.13833333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3399,35 +3447,31 @@
         <v>30.5</v>
       </c>
       <c r="C85" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D85" t="n">
         <v>30.5</v>
       </c>
       <c r="E85" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="F85" t="n">
-        <v>16879.9274</v>
+        <v>2220.9609</v>
       </c>
       <c r="G85" t="n">
-        <v>30.57999999999999</v>
+        <v>31.11666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3442,19 +3486,19 @@
         <v>30.5</v>
       </c>
       <c r="C86" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D86" t="n">
         <v>30.5</v>
       </c>
       <c r="E86" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F86" t="n">
-        <v>43133.783</v>
+        <v>16879.9274</v>
       </c>
       <c r="G86" t="n">
-        <v>30.56</v>
+        <v>31.095</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3463,9 +3507,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,32 +3525,28 @@
         <v>30.5</v>
       </c>
       <c r="C87" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D87" t="n">
         <v>30.5</v>
       </c>
       <c r="E87" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="F87" t="n">
-        <v>34022</v>
+        <v>43133.783</v>
       </c>
       <c r="G87" t="n">
-        <v>30.545</v>
+        <v>31.075</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="K87" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3523,22 +3561,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="C88" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="D88" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E88" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F88" t="n">
-        <v>2387.7177</v>
+        <v>34022</v>
       </c>
       <c r="G88" t="n">
-        <v>30.535</v>
+        <v>31.05333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3547,9 +3585,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3564,7 +3600,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C89" t="n">
         <v>30.8</v>
@@ -3573,13 +3609,13 @@
         <v>30.8</v>
       </c>
       <c r="E89" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F89" t="n">
-        <v>12100</v>
+        <v>2387.7177</v>
       </c>
       <c r="G89" t="n">
-        <v>30.535</v>
+        <v>31.03333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3588,9 +3624,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,7 +3639,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="C90" t="n">
         <v>30.8</v>
@@ -3614,13 +3648,13 @@
         <v>30.8</v>
       </c>
       <c r="E90" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="F90" t="n">
-        <v>8549.0134</v>
+        <v>12100</v>
       </c>
       <c r="G90" t="n">
-        <v>30.51</v>
+        <v>31.01833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3629,9 +3663,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,7 +3678,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="C91" t="n">
         <v>30.8</v>
@@ -3655,13 +3687,13 @@
         <v>30.8</v>
       </c>
       <c r="E91" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="F91" t="n">
-        <v>7660.2458</v>
+        <v>8549.0134</v>
       </c>
       <c r="G91" t="n">
-        <v>30.50500000000001</v>
+        <v>31.00166666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3670,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,22 +3717,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C92" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D92" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="E92" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="F92" t="n">
-        <v>24409.1232</v>
+        <v>7660.2458</v>
       </c>
       <c r="G92" t="n">
-        <v>30.50500000000001</v>
+        <v>30.98666666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3711,9 +3741,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3728,22 +3756,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C93" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D93" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E93" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>24409.1232</v>
       </c>
       <c r="G93" t="n">
-        <v>30.52</v>
+        <v>30.965</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3752,9 +3780,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3769,22 +3795,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C94" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="D94" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E94" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>30.51000000000001</v>
+        <v>30.94666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3793,9 +3819,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3810,22 +3834,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="C95" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="D95" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="E95" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="F95" t="n">
-        <v>41388.6897</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="n">
-        <v>30.51000000000001</v>
+        <v>30.92666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3834,9 +3858,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,22 +3873,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="C96" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="D96" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="E96" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="F96" t="n">
-        <v>32483.8283</v>
+        <v>41388.6897</v>
       </c>
       <c r="G96" t="n">
-        <v>30.50500000000001</v>
+        <v>30.90333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3875,9 +3897,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,10 +3924,10 @@
         <v>30.3</v>
       </c>
       <c r="F97" t="n">
-        <v>20398.3856</v>
+        <v>32483.8283</v>
       </c>
       <c r="G97" t="n">
-        <v>30.50000000000001</v>
+        <v>30.87833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3916,9 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,22 +3951,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C98" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="D98" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="E98" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="F98" t="n">
-        <v>98986.4268</v>
+        <v>20398.3856</v>
       </c>
       <c r="G98" t="n">
-        <v>30.485</v>
+        <v>30.855</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3957,9 +3975,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3974,22 +3990,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="C99" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="D99" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="E99" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="F99" t="n">
-        <v>1103.9529</v>
+        <v>98986.4268</v>
       </c>
       <c r="G99" t="n">
-        <v>30.495</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3998,9 +4014,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,10 +4041,10 @@
         <v>30.6</v>
       </c>
       <c r="F100" t="n">
-        <v>64310.7529</v>
+        <v>1103.9529</v>
       </c>
       <c r="G100" t="n">
-        <v>30.50500000000001</v>
+        <v>30.81499999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4039,9 +4053,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,22 +4068,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="C101" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="D101" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="E101" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="F101" t="n">
-        <v>324.6753</v>
+        <v>64310.7529</v>
       </c>
       <c r="G101" t="n">
-        <v>30.53000000000001</v>
+        <v>30.79499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4080,9 +4092,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,22 +4107,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C102" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D102" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E102" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="F102" t="n">
-        <v>35058.3111</v>
+        <v>324.6753</v>
       </c>
       <c r="G102" t="n">
-        <v>30.54500000000001</v>
+        <v>30.78333333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4121,9 +4131,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,19 +4149,19 @@
         <v>30.6</v>
       </c>
       <c r="C103" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="D103" t="n">
         <v>30.6</v>
       </c>
       <c r="E103" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="F103" t="n">
-        <v>1320</v>
+        <v>35058.3111</v>
       </c>
       <c r="G103" t="n">
-        <v>30.55500000000001</v>
+        <v>30.76166666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4162,9 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4179,22 +4185,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="C104" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="D104" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="E104" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="F104" t="n">
-        <v>28974.2909</v>
+        <v>1320</v>
       </c>
       <c r="G104" t="n">
-        <v>30.56500000000002</v>
+        <v>30.74166666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4203,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,10 +4236,10 @@
         <v>30.7</v>
       </c>
       <c r="F105" t="n">
-        <v>3598.999</v>
+        <v>28974.2909</v>
       </c>
       <c r="G105" t="n">
-        <v>30.57500000000002</v>
+        <v>30.72333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4244,9 +4248,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,10 +4275,10 @@
         <v>30.7</v>
       </c>
       <c r="F106" t="n">
-        <v>4889.6742</v>
+        <v>3598.999</v>
       </c>
       <c r="G106" t="n">
-        <v>30.58500000000002</v>
+        <v>30.70499999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4285,9 +4287,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,10 +4314,10 @@
         <v>30.7</v>
       </c>
       <c r="F107" t="n">
-        <v>4056.8078</v>
+        <v>4889.6742</v>
       </c>
       <c r="G107" t="n">
-        <v>30.59500000000002</v>
+        <v>30.69</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4326,9 +4326,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,10 +4353,10 @@
         <v>30.7</v>
       </c>
       <c r="F108" t="n">
-        <v>9093.517900000001</v>
+        <v>4056.8078</v>
       </c>
       <c r="G108" t="n">
-        <v>30.59500000000002</v>
+        <v>30.675</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4367,9 +4365,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,10 +4392,10 @@
         <v>30.7</v>
       </c>
       <c r="F109" t="n">
-        <v>18089.6488</v>
+        <v>9093.517900000001</v>
       </c>
       <c r="G109" t="n">
-        <v>30.59000000000002</v>
+        <v>30.66166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4408,9 +4404,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,27 +4431,64 @@
         <v>30.7</v>
       </c>
       <c r="F110" t="n">
+        <v>18089.6488</v>
+      </c>
+      <c r="G110" t="n">
+        <v>30.64833333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F111" t="n">
         <v>1512.5553</v>
       </c>
-      <c r="G110" t="n">
-        <v>30.61000000000003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="G111" t="n">
+        <v>30.63833333333334</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>30.7</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>30.7</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>30.7</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>30.7</v>
       </c>
       <c r="F2" t="n">
-        <v>970.0312</v>
+        <v>20339.4924</v>
       </c>
       <c r="G2" t="n">
-        <v>31.93333333333333</v>
+        <v>259430.2555033</v>
       </c>
       <c r="H2" t="n">
-        <v>31.11333333333335</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="C3" t="n">
-        <v>31.8</v>
+        <v>30.8</v>
       </c>
       <c r="D3" t="n">
-        <v>31.8</v>
+        <v>30.8</v>
       </c>
       <c r="E3" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>18297.8916</v>
       </c>
       <c r="G3" t="n">
-        <v>31.91999999999999</v>
+        <v>277728.1471033</v>
       </c>
       <c r="H3" t="n">
-        <v>31.10333333333335</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.8</v>
+        <v>30.9</v>
       </c>
       <c r="C4" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8</v>
+        <v>30.9</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>58764.0319</v>
       </c>
       <c r="G4" t="n">
-        <v>31.91333333333333</v>
+        <v>336492.1790033</v>
       </c>
       <c r="H4" t="n">
-        <v>31.10333333333335</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="E5" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F5" t="n">
-        <v>6340.237</v>
+        <v>5697.9953</v>
       </c>
       <c r="G5" t="n">
-        <v>31.9</v>
+        <v>342190.1743033</v>
       </c>
       <c r="H5" t="n">
-        <v>31.12333333333335</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="C6" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D6" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="E6" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F6" t="n">
-        <v>16695.8211</v>
+        <v>17551.9426</v>
       </c>
       <c r="G6" t="n">
-        <v>31.86666666666666</v>
+        <v>342190.1743033</v>
       </c>
       <c r="H6" t="n">
-        <v>31.13666666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="C7" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="D7" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="E7" t="n">
-        <v>31.9</v>
+        <v>31.3</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>1547.8665</v>
       </c>
       <c r="G7" t="n">
-        <v>31.86</v>
+        <v>342190.1743033</v>
       </c>
       <c r="H7" t="n">
-        <v>31.16000000000002</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="C8" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D8" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="E8" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F8" t="n">
-        <v>35387.8287</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="n">
-        <v>31.83999999999999</v>
+        <v>342190.1743033</v>
       </c>
       <c r="H8" t="n">
-        <v>31.18166666666668</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="C9" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="D9" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="E9" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="F9" t="n">
-        <v>15421.2317</v>
+        <v>6405.677</v>
       </c>
       <c r="G9" t="n">
-        <v>31.81999999999999</v>
+        <v>348595.8513033</v>
       </c>
       <c r="H9" t="n">
-        <v>31.20333333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C10" t="n">
         <v>31.7</v>
@@ -751,27 +722,24 @@
         <v>31.7</v>
       </c>
       <c r="E10" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="F10" t="n">
-        <v>17671.6398</v>
+        <v>24748.675</v>
       </c>
       <c r="G10" t="n">
-        <v>31.80666666666666</v>
+        <v>373344.5263033</v>
       </c>
       <c r="H10" t="n">
-        <v>31.22666666666668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,33 +751,30 @@
         <v>31.7</v>
       </c>
       <c r="C11" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D11" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E11" t="n">
         <v>31.7</v>
       </c>
       <c r="F11" t="n">
-        <v>7506.1433</v>
+        <v>19746.0614</v>
       </c>
       <c r="G11" t="n">
-        <v>31.79999999999999</v>
+        <v>393090.5877033</v>
       </c>
       <c r="H11" t="n">
-        <v>31.25000000000002</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C12" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D12" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E12" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F12" t="n">
-        <v>13141.7886</v>
+        <v>16628.2875</v>
       </c>
       <c r="G12" t="n">
-        <v>31.81333333333333</v>
+        <v>376462.3002033</v>
       </c>
       <c r="H12" t="n">
-        <v>31.27500000000002</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>2010</v>
       </c>
       <c r="G13" t="n">
-        <v>31.81999999999999</v>
+        <v>378472.3002033</v>
       </c>
       <c r="H13" t="n">
-        <v>31.30333333333335</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F14" t="n">
-        <v>38123</v>
+        <v>67259.8746</v>
       </c>
       <c r="G14" t="n">
-        <v>31.81999999999999</v>
+        <v>378472.3002033</v>
       </c>
       <c r="H14" t="n">
-        <v>31.33000000000002</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,24 +900,21 @@
         <v>31.9</v>
       </c>
       <c r="F15" t="n">
-        <v>3286</v>
+        <v>8421.2302</v>
       </c>
       <c r="G15" t="n">
-        <v>31.83333333333333</v>
+        <v>378472.3002033</v>
       </c>
       <c r="H15" t="n">
-        <v>31.35666666666669</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="D16" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F16" t="n">
-        <v>76414.6559</v>
+        <v>649.2649</v>
       </c>
       <c r="G16" t="n">
-        <v>31.83999999999999</v>
+        <v>378472.3002033</v>
       </c>
       <c r="H16" t="n">
-        <v>31.38666666666669</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="C17" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="F17" t="n">
-        <v>64441.8265</v>
+        <v>1270.1167</v>
       </c>
       <c r="G17" t="n">
-        <v>31.86</v>
+        <v>379742.4169033</v>
       </c>
       <c r="H17" t="n">
-        <v>31.42166666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="D18" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="F18" t="n">
-        <v>51756.0096</v>
+        <v>85041.6272</v>
       </c>
       <c r="G18" t="n">
-        <v>31.89333333333333</v>
+        <v>294700.7897033</v>
       </c>
       <c r="H18" t="n">
-        <v>31.45666666666668</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="D19" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="F19" t="n">
-        <v>8332.9377</v>
+        <v>44142.4592</v>
       </c>
       <c r="G19" t="n">
-        <v>31.92666666666666</v>
+        <v>294700.7897033</v>
       </c>
       <c r="H19" t="n">
-        <v>31.49333333333335</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="C20" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="D20" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="E20" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="F20" t="n">
-        <v>49670.0813</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>31.97333333333333</v>
+        <v>294710.7897033</v>
       </c>
       <c r="H20" t="n">
-        <v>31.52833333333335</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,24 +1110,21 @@
         <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>2047.4894</v>
+        <v>25722.6157</v>
       </c>
       <c r="G21" t="n">
-        <v>31.99333333333333</v>
+        <v>268988.1740033</v>
       </c>
       <c r="H21" t="n">
-        <v>31.55500000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
         <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>27302.8842</v>
+        <v>10757.1476</v>
       </c>
       <c r="G22" t="n">
-        <v>32</v>
+        <v>268988.1740033</v>
       </c>
       <c r="H22" t="n">
-        <v>31.58166666666668</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,24 +1180,21 @@
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>11631.1738</v>
+        <v>500</v>
       </c>
       <c r="G23" t="n">
-        <v>32.02</v>
+        <v>268988.1740033</v>
       </c>
       <c r="H23" t="n">
-        <v>31.60833333333335</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F24" t="n">
-        <v>3200</v>
+        <v>7164.012</v>
       </c>
       <c r="G24" t="n">
-        <v>32.04</v>
+        <v>261824.1620033</v>
       </c>
       <c r="H24" t="n">
-        <v>31.63500000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C25" t="n">
         <v>31.8</v>
       </c>
       <c r="D25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E25" t="n">
         <v>31.8</v>
       </c>
       <c r="F25" t="n">
-        <v>54917.3144</v>
+        <v>700.8336</v>
       </c>
       <c r="G25" t="n">
-        <v>32.04666666666667</v>
+        <v>261123.3284033</v>
       </c>
       <c r="H25" t="n">
-        <v>31.65500000000002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,24 +1285,21 @@
         <v>31.7</v>
       </c>
       <c r="F26" t="n">
-        <v>800.7866</v>
+        <v>8909.262500000001</v>
       </c>
       <c r="G26" t="n">
-        <v>32.04666666666667</v>
+        <v>252214.0659033</v>
       </c>
       <c r="H26" t="n">
-        <v>31.67166666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C27" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="D27" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E27" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="F27" t="n">
-        <v>4473.161</v>
+        <v>7003.02</v>
       </c>
       <c r="G27" t="n">
-        <v>32.03333333333333</v>
+        <v>259217.0859033</v>
       </c>
       <c r="H27" t="n">
-        <v>31.69166666666668</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>5728.1875</v>
       </c>
       <c r="G28" t="n">
-        <v>32.01333333333334</v>
+        <v>264945.2734033</v>
       </c>
       <c r="H28" t="n">
-        <v>31.71166666666668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5780.25</v>
+        <v>1253.765</v>
       </c>
       <c r="G29" t="n">
-        <v>32.01333333333334</v>
+        <v>263691.5084033</v>
       </c>
       <c r="H29" t="n">
-        <v>31.74166666666668</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>32.00000000000001</v>
+        <v>264691.5084033</v>
       </c>
       <c r="H30" t="n">
-        <v>31.76166666666668</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
-        <v>395.7718</v>
+        <v>970.0312</v>
       </c>
       <c r="G31" t="n">
-        <v>31.98</v>
+        <v>264691.5084033</v>
       </c>
       <c r="H31" t="n">
-        <v>31.78333333333335</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C32" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D32" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E32" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F32" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>31.94</v>
+        <v>264591.5084033</v>
       </c>
       <c r="H32" t="n">
-        <v>31.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1628,24 +1530,21 @@
         <v>31.8</v>
       </c>
       <c r="F33" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>31.90666666666667</v>
+        <v>264591.5084033</v>
       </c>
       <c r="H33" t="n">
-        <v>31.81833333333335</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C34" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D34" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E34" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>6340.237</v>
       </c>
       <c r="G34" t="n">
-        <v>31.88</v>
+        <v>258251.2714033</v>
       </c>
       <c r="H34" t="n">
-        <v>31.83666666666668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C35" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D35" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E35" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F35" t="n">
-        <v>891.3841</v>
+        <v>16695.8211</v>
       </c>
       <c r="G35" t="n">
-        <v>31.84</v>
+        <v>258251.2714033</v>
       </c>
       <c r="H35" t="n">
-        <v>31.85000000000002</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C36" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D36" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E36" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F36" t="n">
-        <v>7408.4558</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>31.82666666666667</v>
+        <v>258261.2714033</v>
       </c>
       <c r="H36" t="n">
-        <v>31.85833333333335</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C37" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D37" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E37" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F37" t="n">
-        <v>27773</v>
+        <v>35387.8287</v>
       </c>
       <c r="G37" t="n">
-        <v>31.81333333333334</v>
+        <v>222873.4427033</v>
       </c>
       <c r="H37" t="n">
-        <v>31.86666666666668</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C38" t="n">
         <v>31.7</v>
       </c>
       <c r="D38" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E38" t="n">
         <v>31.7</v>
       </c>
       <c r="F38" t="n">
-        <v>55440.6774</v>
+        <v>15421.2317</v>
       </c>
       <c r="G38" t="n">
-        <v>31.79333333333334</v>
+        <v>222873.4427033</v>
       </c>
       <c r="H38" t="n">
-        <v>31.87333333333335</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1856,24 +1740,21 @@
         <v>31.7</v>
       </c>
       <c r="F39" t="n">
-        <v>36777.3917</v>
+        <v>17671.6398</v>
       </c>
       <c r="G39" t="n">
-        <v>31.77333333333333</v>
+        <v>222873.4427033</v>
       </c>
       <c r="H39" t="n">
-        <v>31.88000000000002</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,24 +1775,21 @@
         <v>31.7</v>
       </c>
       <c r="F40" t="n">
-        <v>22952.6448</v>
+        <v>7506.1433</v>
       </c>
       <c r="G40" t="n">
-        <v>31.76666666666667</v>
+        <v>222873.4427033</v>
       </c>
       <c r="H40" t="n">
-        <v>31.88333333333335</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C41" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D41" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E41" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F41" t="n">
-        <v>1344.0566</v>
+        <v>13141.7886</v>
       </c>
       <c r="G41" t="n">
-        <v>31.77333333333333</v>
+        <v>236015.2313033</v>
       </c>
       <c r="H41" t="n">
-        <v>31.88500000000002</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="C42" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="E42" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>57387.6822</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>31.76</v>
+        <v>236025.2313033</v>
       </c>
       <c r="H42" t="n">
-        <v>31.88000000000002</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="C43" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E43" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>9572.9162</v>
+        <v>38123</v>
       </c>
       <c r="G43" t="n">
-        <v>31.76666666666667</v>
+        <v>236025.2313033</v>
       </c>
       <c r="H43" t="n">
-        <v>31.88166666666668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C44" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D44" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E44" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F44" t="n">
-        <v>11175</v>
+        <v>3286</v>
       </c>
       <c r="G44" t="n">
-        <v>31.75333333333334</v>
+        <v>232739.2313033</v>
       </c>
       <c r="H44" t="n">
-        <v>31.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C45" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="D45" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="E45" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>150.9926</v>
+        <v>76414.6559</v>
       </c>
       <c r="G45" t="n">
-        <v>31.76000000000001</v>
+        <v>309153.8872033</v>
       </c>
       <c r="H45" t="n">
-        <v>31.87833333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="C46" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="D46" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="E46" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="F46" t="n">
-        <v>15725.7232</v>
+        <v>64441.8265</v>
       </c>
       <c r="G46" t="n">
-        <v>31.76000000000001</v>
+        <v>373595.7137033</v>
       </c>
       <c r="H46" t="n">
-        <v>31.87666666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="C47" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="D47" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="E47" t="n">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="F47" t="n">
-        <v>27873.1645</v>
+        <v>51756.0096</v>
       </c>
       <c r="G47" t="n">
-        <v>31.75333333333334</v>
+        <v>373595.7137033</v>
       </c>
       <c r="H47" t="n">
-        <v>31.87166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="C48" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="D48" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="E48" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>8332.9377</v>
       </c>
       <c r="G48" t="n">
-        <v>31.74000000000001</v>
+        <v>373595.7137033</v>
       </c>
       <c r="H48" t="n">
-        <v>31.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.6</v>
+        <v>32.3</v>
       </c>
       <c r="C49" t="n">
-        <v>31.5</v>
+        <v>32.4</v>
       </c>
       <c r="D49" t="n">
-        <v>31.6</v>
+        <v>32.4</v>
       </c>
       <c r="E49" t="n">
-        <v>31.5</v>
+        <v>32.3</v>
       </c>
       <c r="F49" t="n">
-        <v>116639.441</v>
+        <v>49670.0813</v>
       </c>
       <c r="G49" t="n">
-        <v>31.71333333333335</v>
+        <v>423265.7950033</v>
       </c>
       <c r="H49" t="n">
-        <v>31.85833333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="C50" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="E50" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F50" t="n">
-        <v>1054.0013</v>
+        <v>2047.4894</v>
       </c>
       <c r="G50" t="n">
-        <v>31.69333333333334</v>
+        <v>421218.3056033</v>
       </c>
       <c r="H50" t="n">
-        <v>31.85166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="C51" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="E51" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>95153.129</v>
+        <v>27302.8842</v>
       </c>
       <c r="G51" t="n">
-        <v>31.66000000000001</v>
+        <v>421218.3056033</v>
       </c>
       <c r="H51" t="n">
-        <v>31.83666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>31.2</v>
+        <v>32</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>31.2</v>
+        <v>32</v>
       </c>
       <c r="E52" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>241050.6803</v>
+        <v>11631.1738</v>
       </c>
       <c r="G52" t="n">
-        <v>31.60666666666668</v>
+        <v>421218.3056033</v>
       </c>
       <c r="H52" t="n">
-        <v>31.82</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="C53" t="n">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>30.9</v>
+        <v>32</v>
       </c>
       <c r="E53" t="n">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="F53" t="n">
-        <v>50829.0362</v>
+        <v>3200</v>
       </c>
       <c r="G53" t="n">
-        <v>31.54666666666668</v>
+        <v>421218.3056033</v>
       </c>
       <c r="H53" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>30.8</v>
+        <v>31.9</v>
       </c>
       <c r="C54" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="D54" t="n">
-        <v>30.8</v>
+        <v>31.9</v>
       </c>
       <c r="E54" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="F54" t="n">
-        <v>117678.4023</v>
+        <v>54917.3144</v>
       </c>
       <c r="G54" t="n">
-        <v>31.48000000000001</v>
+        <v>366300.9912033</v>
       </c>
       <c r="H54" t="n">
-        <v>31.77833333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="C55" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="D55" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="E55" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="F55" t="n">
-        <v>400.828</v>
+        <v>800.7866</v>
       </c>
       <c r="G55" t="n">
-        <v>31.46000000000001</v>
+        <v>365500.2046033</v>
       </c>
       <c r="H55" t="n">
-        <v>31.77</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30.5</v>
+        <v>31.7</v>
       </c>
       <c r="C56" t="n">
-        <v>30.5</v>
+        <v>31.7</v>
       </c>
       <c r="D56" t="n">
-        <v>30.5</v>
+        <v>31.7</v>
       </c>
       <c r="E56" t="n">
-        <v>30.5</v>
+        <v>31.7</v>
       </c>
       <c r="F56" t="n">
-        <v>17312.7461</v>
+        <v>4473.161</v>
       </c>
       <c r="G56" t="n">
-        <v>31.37333333333334</v>
+        <v>365500.2046033</v>
       </c>
       <c r="H56" t="n">
-        <v>31.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="C57" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="D57" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="E57" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="F57" t="n">
-        <v>5210.129</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>31.34000000000001</v>
+        <v>365500.2046033</v>
       </c>
       <c r="H57" t="n">
-        <v>31.73666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="C58" t="n">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="E58" t="n">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="F58" t="n">
-        <v>29173.3224</v>
+        <v>5780.25</v>
       </c>
       <c r="G58" t="n">
-        <v>31.27333333333334</v>
+        <v>371280.4546033</v>
       </c>
       <c r="H58" t="n">
-        <v>31.71833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="C59" t="n">
-        <v>30.7</v>
+        <v>31.7</v>
       </c>
       <c r="D59" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="E59" t="n">
-        <v>30.7</v>
+        <v>31.7</v>
       </c>
       <c r="F59" t="n">
-        <v>49687.43</v>
+        <v>170</v>
       </c>
       <c r="G59" t="n">
-        <v>31.20000000000001</v>
+        <v>371110.4546033</v>
       </c>
       <c r="H59" t="n">
-        <v>31.69666666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="C60" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="D60" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="E60" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="F60" t="n">
-        <v>70405.33930000001</v>
+        <v>395.7718</v>
       </c>
       <c r="G60" t="n">
-        <v>31.11333333333334</v>
+        <v>371506.2264033</v>
       </c>
       <c r="H60" t="n">
-        <v>31.67666666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="C61" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="D61" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="E61" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="F61" t="n">
-        <v>10.3236</v>
+        <v>170</v>
       </c>
       <c r="G61" t="n">
-        <v>31.05333333333334</v>
+        <v>371336.2264033</v>
       </c>
       <c r="H61" t="n">
-        <v>31.65833333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="C62" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="D62" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="E62" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="F62" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G62" t="n">
-        <v>30.98666666666667</v>
+        <v>371416.2264033</v>
       </c>
       <c r="H62" t="n">
-        <v>31.635</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.6</v>
+        <v>31.9</v>
       </c>
       <c r="C63" t="n">
-        <v>30.6</v>
+        <v>31.9</v>
       </c>
       <c r="D63" t="n">
-        <v>30.6</v>
+        <v>31.9</v>
       </c>
       <c r="E63" t="n">
-        <v>30.6</v>
+        <v>31.9</v>
       </c>
       <c r="F63" t="n">
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>30.92000000000001</v>
+        <v>371426.2264033</v>
       </c>
       <c r="H63" t="n">
-        <v>31.615</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="C64" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="D64" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="E64" t="n">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2478.7963</v>
+        <v>891.3841</v>
       </c>
       <c r="G64" t="n">
-        <v>30.86666666666667</v>
+        <v>370534.8423032999</v>
       </c>
       <c r="H64" t="n">
-        <v>31.59666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="C65" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="D65" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="E65" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>7408.4558</v>
       </c>
       <c r="G65" t="n">
-        <v>30.82</v>
+        <v>370534.8423032999</v>
       </c>
       <c r="H65" t="n">
-        <v>31.58166666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="C66" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="D66" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="E66" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="F66" t="n">
-        <v>7753.5064</v>
+        <v>27773</v>
       </c>
       <c r="G66" t="n">
-        <v>30.78666666666667</v>
+        <v>370534.8423032999</v>
       </c>
       <c r="H66" t="n">
-        <v>31.56666666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="C67" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="D67" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="E67" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>55440.6774</v>
       </c>
       <c r="G67" t="n">
-        <v>30.78</v>
+        <v>315094.1649032999</v>
       </c>
       <c r="H67" t="n">
-        <v>31.55</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="C68" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="D68" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="E68" t="n">
-        <v>30.8</v>
+        <v>31.7</v>
       </c>
       <c r="F68" t="n">
-        <v>8000</v>
+        <v>36777.3917</v>
       </c>
       <c r="G68" t="n">
-        <v>30.78</v>
+        <v>315094.1649032999</v>
       </c>
       <c r="H68" t="n">
-        <v>31.53499999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="C69" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="D69" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="E69" t="n">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>22952.6448</v>
       </c>
       <c r="G69" t="n">
-        <v>30.79333333333334</v>
+        <v>315094.1649032999</v>
       </c>
       <c r="H69" t="n">
-        <v>31.52166666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="C70" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="D70" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="E70" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="F70" t="n">
-        <v>36.4936</v>
+        <v>1344.0566</v>
       </c>
       <c r="G70" t="n">
-        <v>30.75333333333334</v>
+        <v>316438.2215033</v>
       </c>
       <c r="H70" t="n">
-        <v>31.50666666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="C71" t="n">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="D71" t="n">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="E71" t="n">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="F71" t="n">
-        <v>324.6753</v>
+        <v>57387.6822</v>
       </c>
       <c r="G71" t="n">
-        <v>30.77333333333334</v>
+        <v>259050.5393032999</v>
       </c>
       <c r="H71" t="n">
-        <v>31.49166666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="C72" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="D72" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="E72" t="n">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="F72" t="n">
-        <v>10407.5</v>
+        <v>9572.9162</v>
       </c>
       <c r="G72" t="n">
-        <v>30.76000000000001</v>
+        <v>268623.4555032999</v>
       </c>
       <c r="H72" t="n">
-        <v>31.47333333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="C73" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="D73" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="E73" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="F73" t="n">
-        <v>7377.0096</v>
+        <v>11175</v>
       </c>
       <c r="G73" t="n">
-        <v>30.74000000000001</v>
+        <v>268623.4555032999</v>
       </c>
       <c r="H73" t="n">
-        <v>31.44833333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="C74" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="D74" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="E74" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="F74" t="n">
-        <v>38027.6925</v>
+        <v>150.9926</v>
       </c>
       <c r="G74" t="n">
-        <v>30.72666666666667</v>
+        <v>268623.4555032999</v>
       </c>
       <c r="H74" t="n">
-        <v>31.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="C75" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="D75" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="E75" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="F75" t="n">
-        <v>4265.699</v>
+        <v>15725.7232</v>
       </c>
       <c r="G75" t="n">
-        <v>30.72666666666667</v>
+        <v>268623.4555032999</v>
       </c>
       <c r="H75" t="n">
-        <v>31.39999999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.5</v>
+        <v>31.6</v>
       </c>
       <c r="C76" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="D76" t="n">
-        <v>30.5</v>
+        <v>31.6</v>
       </c>
       <c r="E76" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="F76" t="n">
-        <v>44948.9923</v>
+        <v>27873.1645</v>
       </c>
       <c r="G76" t="n">
-        <v>30.69333333333334</v>
+        <v>240750.2910032999</v>
       </c>
       <c r="H76" t="n">
-        <v>31.37166666666666</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="C77" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="D77" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="E77" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="F77" t="n">
-        <v>47200.3153</v>
+        <v>60</v>
       </c>
       <c r="G77" t="n">
-        <v>30.68</v>
+        <v>240750.2910032999</v>
       </c>
       <c r="H77" t="n">
-        <v>31.33999999999999</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="C78" t="n">
-        <v>30.4</v>
+        <v>31.5</v>
       </c>
       <c r="D78" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="E78" t="n">
-        <v>30.4</v>
+        <v>31.5</v>
       </c>
       <c r="F78" t="n">
-        <v>3835.5818</v>
+        <v>116639.441</v>
       </c>
       <c r="G78" t="n">
-        <v>30.66666666666667</v>
+        <v>124110.8500032999</v>
       </c>
       <c r="H78" t="n">
-        <v>31.30833333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.7</v>
+        <v>31.5</v>
       </c>
       <c r="C79" t="n">
-        <v>30.7</v>
+        <v>31.5</v>
       </c>
       <c r="D79" t="n">
-        <v>30.7</v>
+        <v>31.5</v>
       </c>
       <c r="E79" t="n">
-        <v>30.7</v>
+        <v>31.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1950.5537</v>
+        <v>1054.0013</v>
       </c>
       <c r="G79" t="n">
-        <v>30.66666666666667</v>
+        <v>124110.8500032999</v>
       </c>
       <c r="H79" t="n">
-        <v>31.28166666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.4</v>
+        <v>31.5</v>
       </c>
       <c r="C80" t="n">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="D80" t="n">
-        <v>30.4</v>
+        <v>31.5</v>
       </c>
       <c r="E80" t="n">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="F80" t="n">
-        <v>4441.9218</v>
+        <v>95153.129</v>
       </c>
       <c r="G80" t="n">
-        <v>30.64</v>
+        <v>28957.72100329993</v>
       </c>
       <c r="H80" t="n">
-        <v>31.24833333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="C81" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="E81" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="F81" t="n">
-        <v>2531.7745</v>
+        <v>241050.6803</v>
       </c>
       <c r="G81" t="n">
-        <v>30.61333333333333</v>
+        <v>-212092.9592967001</v>
       </c>
       <c r="H81" t="n">
-        <v>31.22166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="C82" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="D82" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="E82" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="F82" t="n">
-        <v>31059.2739</v>
+        <v>50829.0362</v>
       </c>
       <c r="G82" t="n">
-        <v>30.57333333333333</v>
+        <v>-262921.9954967001</v>
       </c>
       <c r="H82" t="n">
-        <v>31.19333333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="C83" t="n">
-        <v>30.3</v>
+        <v>30.7</v>
       </c>
       <c r="D83" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="E83" t="n">
-        <v>30.3</v>
+        <v>30.7</v>
       </c>
       <c r="F83" t="n">
-        <v>2226.3382</v>
+        <v>117678.4023</v>
       </c>
       <c r="G83" t="n">
-        <v>30.54</v>
+        <v>-380600.3977967001</v>
       </c>
       <c r="H83" t="n">
-        <v>31.165</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,40 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="C84" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="D84" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="E84" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="F84" t="n">
-        <v>7949.7651</v>
+        <v>400.828</v>
       </c>
       <c r="G84" t="n">
-        <v>30.50666666666666</v>
+        <v>-380199.5697967001</v>
       </c>
       <c r="H84" t="n">
-        <v>31.13833333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L84" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,32 +3350,21 @@
         <v>30.5</v>
       </c>
       <c r="F85" t="n">
-        <v>2220.9609</v>
+        <v>17312.7461</v>
       </c>
       <c r="G85" t="n">
-        <v>30.48666666666666</v>
+        <v>-397512.3158967001</v>
       </c>
       <c r="H85" t="n">
-        <v>31.11666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L85" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3642,44 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="E86" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="F86" t="n">
-        <v>16879.9274</v>
+        <v>5210.129</v>
       </c>
       <c r="G86" t="n">
-        <v>30.45999999999999</v>
+        <v>-392302.1868967001</v>
       </c>
       <c r="H86" t="n">
-        <v>31.095</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L86" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,40 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="C87" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D87" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="E87" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="F87" t="n">
-        <v>43133.783</v>
+        <v>29173.3224</v>
       </c>
       <c r="G87" t="n">
-        <v>30.43999999999999</v>
+        <v>-421475.5092967001</v>
       </c>
       <c r="H87" t="n">
-        <v>31.075</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L87" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3730,44 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="C88" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="D88" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="E88" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="F88" t="n">
-        <v>34022</v>
+        <v>49687.43</v>
       </c>
       <c r="G88" t="n">
-        <v>30.43333333333333</v>
+        <v>-471162.9392967001</v>
       </c>
       <c r="H88" t="n">
-        <v>31.05333333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L88" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,41 +3481,30 @@
         <v>30.7</v>
       </c>
       <c r="C89" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D89" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E89" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="F89" t="n">
-        <v>2387.7177</v>
+        <v>70405.33930000001</v>
       </c>
       <c r="G89" t="n">
-        <v>30.45333333333333</v>
+        <v>-541568.2785967001</v>
       </c>
       <c r="H89" t="n">
-        <v>31.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L89" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,42 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="C90" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="D90" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E90" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="F90" t="n">
-        <v>12100</v>
+        <v>10.3236</v>
       </c>
       <c r="G90" t="n">
-        <v>30.47333333333333</v>
+        <v>-541557.9549967</v>
       </c>
       <c r="H90" t="n">
-        <v>31.01833333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,42 +3548,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="C91" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="D91" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="E91" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="F91" t="n">
-        <v>8549.0134</v>
+        <v>3000</v>
       </c>
       <c r="G91" t="n">
-        <v>30.5</v>
+        <v>-544557.9549967</v>
       </c>
       <c r="H91" t="n">
-        <v>31.00166666666667</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,42 +3587,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="C92" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="D92" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="E92" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="F92" t="n">
-        <v>7660.2458</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>30.52666666666666</v>
+        <v>-544557.9549967</v>
       </c>
       <c r="H92" t="n">
-        <v>30.98666666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,42 +3628,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="C93" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="D93" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="E93" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="F93" t="n">
-        <v>24409.1232</v>
+        <v>2478.7963</v>
       </c>
       <c r="G93" t="n">
-        <v>30.53333333333333</v>
+        <v>-542079.1586967</v>
       </c>
       <c r="H93" t="n">
-        <v>30.965</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4013,27 +3686,26 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>30.54</v>
+        <v>-542069.1586967</v>
       </c>
       <c r="H94" t="n">
-        <v>30.94666666666666</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M94" t="inlineStr">
+        <v>30.7</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,42 +3714,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C95" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="D95" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E95" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>7753.5064</v>
       </c>
       <c r="G95" t="n">
-        <v>30.55333333333334</v>
+        <v>-542069.1586967</v>
       </c>
       <c r="H95" t="n">
-        <v>30.92666666666666</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M95" t="inlineStr">
+        <v>30.8</v>
+      </c>
+      <c r="K95" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,42 +3757,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="C96" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="D96" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="E96" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="F96" t="n">
-        <v>41388.6897</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>30.55333333333334</v>
+        <v>-542059.1586967</v>
       </c>
       <c r="H96" t="n">
-        <v>30.90333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M96" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,42 +3798,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="C97" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="D97" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="E97" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="F97" t="n">
-        <v>32483.8283</v>
+        <v>8000</v>
       </c>
       <c r="G97" t="n">
-        <v>30.55333333333334</v>
+        <v>-550059.1586967</v>
       </c>
       <c r="H97" t="n">
-        <v>30.87833333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,44 +3839,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="C98" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="D98" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="E98" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="F98" t="n">
-        <v>20398.3856</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>30.55333333333334</v>
+        <v>-550049.1586967</v>
       </c>
       <c r="H98" t="n">
-        <v>30.855</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="L98" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M98" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,42 +3880,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="C99" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="D99" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="E99" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="F99" t="n">
-        <v>98986.4268</v>
+        <v>36.4936</v>
       </c>
       <c r="G99" t="n">
-        <v>30.55333333333334</v>
+        <v>-550085.6522967</v>
       </c>
       <c r="H99" t="n">
-        <v>30.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,44 +3921,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="D100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="F100" t="n">
-        <v>1103.9529</v>
+        <v>324.6753</v>
       </c>
       <c r="G100" t="n">
-        <v>30.56000000000001</v>
+        <v>-550085.6522967</v>
       </c>
       <c r="H100" t="n">
-        <v>30.81499999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L100" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M100" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,42 +3962,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C101" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="D101" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E101" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="F101" t="n">
-        <v>64310.7529</v>
+        <v>10407.5</v>
       </c>
       <c r="G101" t="n">
-        <v>30.57333333333334</v>
+        <v>-550085.6522967</v>
       </c>
       <c r="H101" t="n">
-        <v>30.79499999999999</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,42 +4003,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C102" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D102" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E102" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="F102" t="n">
-        <v>324.6753</v>
+        <v>7377.0096</v>
       </c>
       <c r="G102" t="n">
-        <v>30.59333333333334</v>
+        <v>-557462.6618967</v>
       </c>
       <c r="H102" t="n">
-        <v>30.78333333333332</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,42 +4044,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="C103" t="n">
         <v>30.5</v>
       </c>
       <c r="D103" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="E103" t="n">
         <v>30.5</v>
       </c>
       <c r="F103" t="n">
-        <v>35058.3111</v>
+        <v>38027.6925</v>
       </c>
       <c r="G103" t="n">
-        <v>30.60000000000001</v>
+        <v>-557462.6618967</v>
       </c>
       <c r="H103" t="n">
-        <v>30.76166666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,42 +4085,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C104" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="D104" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E104" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="F104" t="n">
-        <v>1320</v>
+        <v>4265.699</v>
       </c>
       <c r="G104" t="n">
-        <v>30.58666666666668</v>
+        <v>-557462.6618967</v>
       </c>
       <c r="H104" t="n">
-        <v>30.74166666666666</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M104" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,42 +4126,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="C105" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D105" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="E105" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F105" t="n">
-        <v>28974.2909</v>
+        <v>44948.9923</v>
       </c>
       <c r="G105" t="n">
-        <v>30.58000000000001</v>
+        <v>-602411.6541967001</v>
       </c>
       <c r="H105" t="n">
-        <v>30.72333333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,42 +4167,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C106" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D106" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E106" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F106" t="n">
-        <v>3598.999</v>
+        <v>47200.3153</v>
       </c>
       <c r="G106" t="n">
-        <v>30.57333333333334</v>
+        <v>-602411.6541967001</v>
       </c>
       <c r="H106" t="n">
-        <v>30.70499999999999</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M106" t="inlineStr">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,42 +4208,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C107" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D107" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E107" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F107" t="n">
-        <v>4889.6742</v>
+        <v>3835.5818</v>
       </c>
       <c r="G107" t="n">
-        <v>30.56666666666667</v>
+        <v>-602411.6541967001</v>
       </c>
       <c r="H107" t="n">
-        <v>30.69</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M107" t="inlineStr">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,30 +4261,27 @@
         <v>30.7</v>
       </c>
       <c r="F108" t="n">
-        <v>4056.8078</v>
+        <v>1950.5537</v>
       </c>
       <c r="G108" t="n">
-        <v>30.58000000000001</v>
+        <v>-600461.1004967</v>
       </c>
       <c r="H108" t="n">
-        <v>30.675</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,44 +4290,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C109" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D109" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E109" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F109" t="n">
-        <v>9093.517900000001</v>
+        <v>4441.9218</v>
       </c>
       <c r="G109" t="n">
-        <v>30.57333333333334</v>
+        <v>-604903.0222967</v>
       </c>
       <c r="H109" t="n">
-        <v>30.66166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L109" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M109" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,42 +4331,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C110" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D110" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E110" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F110" t="n">
-        <v>18089.6488</v>
+        <v>2531.7745</v>
       </c>
       <c r="G110" t="n">
-        <v>30.58</v>
+        <v>-604903.0222967</v>
       </c>
       <c r="H110" t="n">
-        <v>30.64833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,44 +4372,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="C111" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="D111" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="E111" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="F111" t="n">
-        <v>1512.5553</v>
+        <v>31059.2739</v>
       </c>
       <c r="G111" t="n">
-        <v>30.6</v>
+        <v>-635962.2961967001</v>
       </c>
       <c r="H111" t="n">
-        <v>30.63833333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L111" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M111" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,44 +4413,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="C112" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="D112" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="E112" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="F112" t="n">
-        <v>10000</v>
+        <v>2226.3382</v>
       </c>
       <c r="G112" t="n">
-        <v>30.63333333333334</v>
+        <v>-635962.2961967001</v>
       </c>
       <c r="H112" t="n">
-        <v>30.635</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L112" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M112" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,44 +4454,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="C113" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="D113" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="E113" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>7949.7651</v>
       </c>
       <c r="G113" t="n">
-        <v>30.66666666666667</v>
+        <v>-628012.5310967001</v>
       </c>
       <c r="H113" t="n">
-        <v>30.635</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M113" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,44 +4495,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C114" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D114" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E114" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="F114" t="n">
-        <v>170</v>
+        <v>2220.9609</v>
       </c>
       <c r="G114" t="n">
-        <v>30.69333333333334</v>
+        <v>-625791.5701967002</v>
       </c>
       <c r="H114" t="n">
-        <v>30.63666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L114" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M114" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,44 +4536,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C115" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="D115" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E115" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="F115" t="n">
-        <v>2380.2922</v>
+        <v>16879.9274</v>
       </c>
       <c r="G115" t="n">
-        <v>30.70666666666667</v>
+        <v>-642671.4975967002</v>
       </c>
       <c r="H115" t="n">
-        <v>30.62666666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M115" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,44 +4577,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="C116" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="D116" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="E116" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="F116" t="n">
-        <v>11630</v>
+        <v>43133.783</v>
       </c>
       <c r="G116" t="n">
-        <v>30.71333333333333</v>
+        <v>-599537.7145967002</v>
       </c>
       <c r="H116" t="n">
-        <v>30.63</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L116" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M116" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,44 +4618,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C117" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="D117" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="E117" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="F117" t="n">
-        <v>52806.14434709</v>
+        <v>34022</v>
       </c>
       <c r="G117" t="n">
-        <v>30.72666666666667</v>
+        <v>-633559.7145967002</v>
       </c>
       <c r="H117" t="n">
-        <v>30.63</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L117" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M117" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,44 +4659,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C118" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="D118" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="E118" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="F118" t="n">
-        <v>14145.14935291</v>
+        <v>2387.7177</v>
       </c>
       <c r="G118" t="n">
-        <v>30.76</v>
+        <v>-631171.9968967001</v>
       </c>
       <c r="H118" t="n">
-        <v>30.63333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>31</v>
-      </c>
-      <c r="L118" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M118" t="inlineStr">
+        <v>30.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,42 +4700,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="C119" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="D119" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="E119" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="F119" t="n">
-        <v>50586.5549</v>
+        <v>12100</v>
       </c>
       <c r="G119" t="n">
-        <v>30.80666666666667</v>
+        <v>-631171.9968967001</v>
       </c>
       <c r="H119" t="n">
-        <v>30.64333333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M119" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,42 +4741,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="C120" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D120" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="E120" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="F120" t="n">
-        <v>2871.7889</v>
+        <v>8549.0134</v>
       </c>
       <c r="G120" t="n">
-        <v>30.80666666666667</v>
+        <v>-631171.9968967001</v>
       </c>
       <c r="H120" t="n">
-        <v>30.64666666666666</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,42 +4782,1230 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7660.2458</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-631171.9968967001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>24409.1232</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-655581.1200967001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-655571.1200967001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-656571.1200967001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>41388.6897</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-697959.8097967001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>32483.8283</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-730443.6380967002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20398.3856</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-730443.6380967002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>98986.4268</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-631457.2112967002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1103.9529</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-630353.2583967001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>64310.7529</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-630353.2583967001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>324.6753</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-630028.5830967001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>35058.3111</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-665086.8941967002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-663766.8941967002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28974.2909</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3598.999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4889.6742</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4056.8078</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9093.517900000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>18089.6488</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1512.5553</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K142" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>170</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2380.2922</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11630</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-636422.6032967002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>31</v>
+      </c>
+      <c r="D146" t="n">
+        <v>31</v>
+      </c>
+      <c r="E146" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>52806.14434709</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-583616.4589496101</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>31</v>
+      </c>
+      <c r="C147" t="n">
+        <v>31</v>
+      </c>
+      <c r="D147" t="n">
+        <v>31</v>
+      </c>
+      <c r="E147" t="n">
+        <v>31</v>
+      </c>
+      <c r="F147" t="n">
+        <v>14145.14935291</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-583616.4589496101</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>50586.5549</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-533029.9040496101</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2871.7889</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-535901.6929496102</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>31.1</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C150" t="n">
         <v>31.1</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D150" t="n">
         <v>31.1</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E150" t="n">
         <v>31.1</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F150" t="n">
         <v>111749.8737</v>
       </c>
-      <c r="G121" t="n">
-        <v>30.83333333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>30.65</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="M121" t="inlineStr">
+      <c r="G150" t="n">
+        <v>-424151.8192496102</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.7</v>
+        <v>31.9</v>
       </c>
       <c r="C2" t="n">
-        <v>30.7</v>
+        <v>31.9</v>
       </c>
       <c r="D2" t="n">
-        <v>30.7</v>
+        <v>31.9</v>
       </c>
       <c r="E2" t="n">
-        <v>30.7</v>
+        <v>31.9</v>
       </c>
       <c r="F2" t="n">
-        <v>20339.4924</v>
+        <v>3286</v>
       </c>
       <c r="G2" t="n">
-        <v>259430.2555033</v>
+        <v>31.83000000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.7</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>30.8</v>
+        <v>32.1</v>
       </c>
       <c r="D3" t="n">
-        <v>30.8</v>
+        <v>32.1</v>
       </c>
       <c r="E3" t="n">
-        <v>30.7</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>18297.8916</v>
+        <v>76414.6559</v>
       </c>
       <c r="G3" t="n">
-        <v>277728.1471033</v>
+        <v>31.84000000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.9</v>
+        <v>32.2</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>32.3</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>32.3</v>
       </c>
       <c r="E4" t="n">
-        <v>30.9</v>
+        <v>32.2</v>
       </c>
       <c r="F4" t="n">
-        <v>58764.0319</v>
+        <v>64441.8265</v>
       </c>
       <c r="G4" t="n">
-        <v>336492.1790033</v>
+        <v>31.86500000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="C5" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="D5" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="E5" t="n">
-        <v>31.3</v>
+        <v>32.2</v>
       </c>
       <c r="F5" t="n">
-        <v>5697.9953</v>
+        <v>51756.0096</v>
       </c>
       <c r="G5" t="n">
-        <v>342190.1743033</v>
+        <v>31.88000000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.4</v>
+        <v>32.3</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4</v>
+        <v>32.3</v>
       </c>
       <c r="E6" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="F6" t="n">
-        <v>17551.9426</v>
+        <v>8332.9377</v>
       </c>
       <c r="G6" t="n">
-        <v>342190.1743033</v>
+        <v>31.89500000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3</v>
+        <v>32.4</v>
       </c>
       <c r="D7" t="n">
-        <v>31.3</v>
+        <v>32.4</v>
       </c>
       <c r="E7" t="n">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1547.8665</v>
+        <v>49670.0813</v>
       </c>
       <c r="G7" t="n">
-        <v>342190.1743033</v>
+        <v>31.92500000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>2047.4894</v>
       </c>
       <c r="G8" t="n">
-        <v>342190.1743033</v>
+        <v>31.92500000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="C9" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="E9" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>6405.677</v>
+        <v>27302.8842</v>
       </c>
       <c r="G9" t="n">
-        <v>348595.8513033</v>
+        <v>31.93000000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>24748.675</v>
+        <v>11631.1738</v>
       </c>
       <c r="G10" t="n">
-        <v>373344.5263033</v>
+        <v>31.94000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>19746.0614</v>
+        <v>3200</v>
       </c>
       <c r="G11" t="n">
-        <v>393090.5877033</v>
+        <v>31.95000000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C12" t="n">
         <v>31.8</v>
       </c>
-      <c r="C12" t="n">
-        <v>31.7</v>
-      </c>
       <c r="D12" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E12" t="n">
         <v>31.8</v>
       </c>
-      <c r="E12" t="n">
-        <v>31.7</v>
-      </c>
       <c r="F12" t="n">
-        <v>16628.2875</v>
+        <v>54917.3144</v>
       </c>
       <c r="G12" t="n">
-        <v>376462.3002033</v>
+        <v>31.96000000000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -821,19 +837,19 @@
         <v>31.7</v>
       </c>
       <c r="C13" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E13" t="n">
         <v>31.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2010</v>
+        <v>800.7866</v>
       </c>
       <c r="G13" t="n">
-        <v>378472.3002033</v>
+        <v>31.96000000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D14" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E14" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F14" t="n">
-        <v>67259.8746</v>
+        <v>4473.161</v>
       </c>
       <c r="G14" t="n">
-        <v>378472.3002033</v>
+        <v>31.95000000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F15" t="n">
-        <v>8421.2302</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="n">
-        <v>378472.3002033</v>
+        <v>31.95000000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>649.2649</v>
+        <v>5780.25</v>
       </c>
       <c r="G16" t="n">
-        <v>378472.3002033</v>
+        <v>31.96500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="E17" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1270.1167</v>
+        <v>170</v>
       </c>
       <c r="G17" t="n">
-        <v>379742.4169033</v>
+        <v>31.96500000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C18" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E18" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F18" t="n">
-        <v>85041.6272</v>
+        <v>395.7718</v>
       </c>
       <c r="G18" t="n">
-        <v>294700.7897033</v>
+        <v>31.97000000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C19" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="E19" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F19" t="n">
-        <v>44142.4592</v>
+        <v>170</v>
       </c>
       <c r="G19" t="n">
-        <v>294700.7897033</v>
+        <v>31.96000000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="C20" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="D20" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="E20" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G20" t="n">
-        <v>294710.7897033</v>
+        <v>31.95000000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F21" t="n">
-        <v>25722.6157</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>268988.1740033</v>
+        <v>31.94500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="F22" t="n">
-        <v>10757.1476</v>
+        <v>891.3841</v>
       </c>
       <c r="G22" t="n">
-        <v>268988.1740033</v>
+        <v>31.94000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>7408.4558</v>
       </c>
       <c r="G23" t="n">
-        <v>268988.1740033</v>
+        <v>31.93000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C24" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="D24" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E24" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F24" t="n">
-        <v>7164.012</v>
+        <v>27773</v>
       </c>
       <c r="G24" t="n">
-        <v>261824.1620033</v>
+        <v>31.91000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1241,25 +1269,25 @@
         <v>31.8</v>
       </c>
       <c r="C25" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D25" t="n">
         <v>31.8</v>
       </c>
       <c r="E25" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F25" t="n">
-        <v>700.8336</v>
+        <v>55440.6774</v>
       </c>
       <c r="G25" t="n">
-        <v>261123.3284033</v>
+        <v>31.89000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1285,16 +1314,16 @@
         <v>31.7</v>
       </c>
       <c r="F26" t="n">
-        <v>8909.262500000001</v>
+        <v>36777.3917</v>
       </c>
       <c r="G26" t="n">
-        <v>252214.0659033</v>
+        <v>31.86000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C27" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D27" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E27" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F27" t="n">
-        <v>7003.02</v>
+        <v>22952.6448</v>
       </c>
       <c r="G27" t="n">
-        <v>259217.0859033</v>
+        <v>31.83000000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="F28" t="n">
-        <v>5728.1875</v>
+        <v>1344.0566</v>
       </c>
       <c r="G28" t="n">
-        <v>264945.2734033</v>
+        <v>31.82000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C29" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="D29" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E29" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="F29" t="n">
-        <v>1253.765</v>
+        <v>57387.6822</v>
       </c>
       <c r="G29" t="n">
-        <v>263691.5084033</v>
+        <v>31.79500000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>9572.9162</v>
       </c>
       <c r="G30" t="n">
-        <v>264691.5084033</v>
+        <v>31.77000000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="F31" t="n">
-        <v>970.0312</v>
+        <v>11175</v>
       </c>
       <c r="G31" t="n">
-        <v>264691.5084033</v>
+        <v>31.76000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1495,10 +1530,10 @@
         <v>31.8</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>150.9926</v>
       </c>
       <c r="G32" t="n">
-        <v>264591.5084033</v>
+        <v>31.75500000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1530,10 +1566,10 @@
         <v>31.8</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>15725.7232</v>
       </c>
       <c r="G33" t="n">
-        <v>264591.5084033</v>
+        <v>31.76000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C34" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="D34" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E34" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="F34" t="n">
-        <v>6340.237</v>
+        <v>27873.1645</v>
       </c>
       <c r="G34" t="n">
-        <v>258251.2714033</v>
+        <v>31.75500000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C35" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="D35" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E35" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="F35" t="n">
-        <v>16695.8211</v>
+        <v>60</v>
       </c>
       <c r="G35" t="n">
-        <v>258251.2714033</v>
+        <v>31.75000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="C36" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="D36" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="E36" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>116639.441</v>
       </c>
       <c r="G36" t="n">
-        <v>258261.2714033</v>
+        <v>31.73000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="C37" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="D37" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="E37" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="F37" t="n">
-        <v>35387.8287</v>
+        <v>1054.0013</v>
       </c>
       <c r="G37" t="n">
-        <v>222873.4427033</v>
+        <v>31.72000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="C38" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D38" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="E38" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F38" t="n">
-        <v>15421.2317</v>
+        <v>95153.129</v>
       </c>
       <c r="G38" t="n">
-        <v>222873.4427033</v>
+        <v>31.70500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="C39" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="E39" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>17671.6398</v>
+        <v>241050.6803</v>
       </c>
       <c r="G39" t="n">
-        <v>222873.4427033</v>
+        <v>31.68000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="C40" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="D40" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="E40" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="F40" t="n">
-        <v>7506.1433</v>
+        <v>50829.0362</v>
       </c>
       <c r="G40" t="n">
-        <v>222873.4427033</v>
+        <v>31.63500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.9</v>
+        <v>30.8</v>
       </c>
       <c r="C41" t="n">
-        <v>31.9</v>
+        <v>30.7</v>
       </c>
       <c r="D41" t="n">
-        <v>31.9</v>
+        <v>30.8</v>
       </c>
       <c r="E41" t="n">
-        <v>31.9</v>
+        <v>30.7</v>
       </c>
       <c r="F41" t="n">
-        <v>13141.7886</v>
+        <v>117678.4023</v>
       </c>
       <c r="G41" t="n">
-        <v>236015.2313033</v>
+        <v>31.58000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>400.828</v>
       </c>
       <c r="G42" t="n">
-        <v>236025.2313033</v>
+        <v>31.56000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="E43" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="F43" t="n">
-        <v>38123</v>
+        <v>17312.7461</v>
       </c>
       <c r="G43" t="n">
-        <v>236025.2313033</v>
+        <v>31.49500000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.9</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>31.9</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>31.9</v>
+        <v>31</v>
       </c>
       <c r="E44" t="n">
-        <v>31.9</v>
+        <v>31</v>
       </c>
       <c r="F44" t="n">
-        <v>3286</v>
+        <v>5210.129</v>
       </c>
       <c r="G44" t="n">
-        <v>232739.2313033</v>
+        <v>31.45500000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="C45" t="n">
-        <v>32.1</v>
+        <v>30.8</v>
       </c>
       <c r="D45" t="n">
-        <v>32.1</v>
+        <v>30.8</v>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="F45" t="n">
-        <v>76414.6559</v>
+        <v>29173.3224</v>
       </c>
       <c r="G45" t="n">
-        <v>309153.8872033</v>
+        <v>31.40500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32.2</v>
+        <v>30.8</v>
       </c>
       <c r="C46" t="n">
-        <v>32.3</v>
+        <v>30.7</v>
       </c>
       <c r="D46" t="n">
-        <v>32.3</v>
+        <v>30.8</v>
       </c>
       <c r="E46" t="n">
-        <v>32.2</v>
+        <v>30.7</v>
       </c>
       <c r="F46" t="n">
-        <v>64441.8265</v>
+        <v>49687.43</v>
       </c>
       <c r="G46" t="n">
-        <v>373595.7137033</v>
+        <v>31.36000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>32.2</v>
+        <v>30.7</v>
       </c>
       <c r="C47" t="n">
-        <v>32.3</v>
+        <v>30.5</v>
       </c>
       <c r="D47" t="n">
-        <v>32.3</v>
+        <v>30.7</v>
       </c>
       <c r="E47" t="n">
-        <v>32.2</v>
+        <v>30.5</v>
       </c>
       <c r="F47" t="n">
-        <v>51756.0096</v>
+        <v>70405.33930000001</v>
       </c>
       <c r="G47" t="n">
-        <v>373595.7137033</v>
+        <v>31.31000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32.3</v>
+        <v>30.9</v>
       </c>
       <c r="C48" t="n">
-        <v>32.3</v>
+        <v>30.9</v>
       </c>
       <c r="D48" t="n">
-        <v>32.3</v>
+        <v>30.9</v>
       </c>
       <c r="E48" t="n">
-        <v>32.3</v>
+        <v>30.9</v>
       </c>
       <c r="F48" t="n">
-        <v>8332.9377</v>
+        <v>10.3236</v>
       </c>
       <c r="G48" t="n">
-        <v>373595.7137033</v>
+        <v>31.26500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>32.3</v>
+        <v>30.6</v>
       </c>
       <c r="C49" t="n">
-        <v>32.4</v>
+        <v>30.6</v>
       </c>
       <c r="D49" t="n">
-        <v>32.4</v>
+        <v>30.6</v>
       </c>
       <c r="E49" t="n">
-        <v>32.3</v>
+        <v>30.6</v>
       </c>
       <c r="F49" t="n">
-        <v>49670.0813</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="n">
-        <v>423265.7950033</v>
+        <v>31.21500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="D50" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="E50" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="F50" t="n">
-        <v>2047.4894</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>421218.3056033</v>
+        <v>31.17000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>32.1</v>
+        <v>30.6</v>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>30.7</v>
       </c>
       <c r="D51" t="n">
-        <v>32.1</v>
+        <v>30.7</v>
       </c>
       <c r="E51" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="F51" t="n">
-        <v>27302.8842</v>
+        <v>2478.7963</v>
       </c>
       <c r="G51" t="n">
-        <v>421218.3056033</v>
+        <v>31.11000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="D52" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="E52" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="F52" t="n">
-        <v>11631.1738</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>421218.3056033</v>
+        <v>31.06000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="E53" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="F53" t="n">
-        <v>3200</v>
+        <v>7753.5064</v>
       </c>
       <c r="G53" t="n">
-        <v>421218.3056033</v>
+        <v>31.01000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.9</v>
+        <v>30.9</v>
       </c>
       <c r="C54" t="n">
-        <v>31.8</v>
+        <v>30.9</v>
       </c>
       <c r="D54" t="n">
-        <v>31.9</v>
+        <v>30.9</v>
       </c>
       <c r="E54" t="n">
-        <v>31.8</v>
+        <v>30.9</v>
       </c>
       <c r="F54" t="n">
-        <v>54917.3144</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>366300.9912033</v>
+        <v>30.97500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="C55" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="D55" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="E55" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="F55" t="n">
-        <v>800.7866</v>
+        <v>8000</v>
       </c>
       <c r="G55" t="n">
-        <v>365500.2046033</v>
+        <v>30.93500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="C56" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="D56" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="E56" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
       <c r="F56" t="n">
-        <v>4473.161</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>365500.2046033</v>
+        <v>30.90000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="C57" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="D57" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="E57" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>36.4936</v>
       </c>
       <c r="G57" t="n">
-        <v>365500.2046033</v>
+        <v>30.865</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="C58" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="D58" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="E58" t="n">
-        <v>32</v>
+        <v>30.8</v>
       </c>
       <c r="F58" t="n">
-        <v>5780.25</v>
+        <v>324.6753</v>
       </c>
       <c r="G58" t="n">
-        <v>371280.4546033</v>
+        <v>30.83</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="C59" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="D59" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="E59" t="n">
-        <v>31.7</v>
+        <v>30.8</v>
       </c>
       <c r="F59" t="n">
-        <v>170</v>
+        <v>10407.5</v>
       </c>
       <c r="G59" t="n">
-        <v>371110.4546033</v>
+        <v>30.81</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="C60" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="D60" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="E60" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="F60" t="n">
-        <v>395.7718</v>
+        <v>7377.0096</v>
       </c>
       <c r="G60" t="n">
-        <v>371506.2264033</v>
+        <v>30.79</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>31.7</v>
+        <v>30.5</v>
       </c>
       <c r="C61" t="n">
-        <v>31.7</v>
+        <v>30.5</v>
       </c>
       <c r="D61" t="n">
-        <v>31.7</v>
+        <v>30.5</v>
       </c>
       <c r="E61" t="n">
-        <v>31.7</v>
+        <v>30.5</v>
       </c>
       <c r="F61" t="n">
-        <v>170</v>
+        <v>38027.6925</v>
       </c>
       <c r="G61" t="n">
-        <v>371336.2264033</v>
+        <v>30.775</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>31.8</v>
+        <v>30.8</v>
       </c>
       <c r="C62" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="D62" t="n">
-        <v>31.8</v>
+        <v>30.8</v>
       </c>
       <c r="E62" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="F62" t="n">
-        <v>80</v>
+        <v>4265.699</v>
       </c>
       <c r="G62" t="n">
-        <v>371416.2264033</v>
+        <v>30.745</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>31.9</v>
+        <v>30.5</v>
       </c>
       <c r="C63" t="n">
-        <v>31.9</v>
+        <v>30.4</v>
       </c>
       <c r="D63" t="n">
-        <v>31.9</v>
+        <v>30.5</v>
       </c>
       <c r="E63" t="n">
-        <v>31.9</v>
+        <v>30.4</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>44948.9923</v>
       </c>
       <c r="G63" t="n">
-        <v>371426.2264033</v>
+        <v>30.745</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="C64" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="D64" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="E64" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="F64" t="n">
-        <v>891.3841</v>
+        <v>47200.3153</v>
       </c>
       <c r="G64" t="n">
-        <v>370534.8423032999</v>
+        <v>30.715</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="C65" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="D65" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="E65" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="F65" t="n">
-        <v>7408.4558</v>
+        <v>3835.5818</v>
       </c>
       <c r="G65" t="n">
-        <v>370534.8423032999</v>
+        <v>30.695</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="C66" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="D66" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="E66" t="n">
-        <v>31.8</v>
+        <v>30.7</v>
       </c>
       <c r="F66" t="n">
-        <v>27773</v>
+        <v>1950.5537</v>
       </c>
       <c r="G66" t="n">
-        <v>370534.8423032999</v>
+        <v>30.69</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,63 +2771,69 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="C67" t="n">
-        <v>31.7</v>
+        <v>30.4</v>
       </c>
       <c r="D67" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="E67" t="n">
-        <v>31.7</v>
+        <v>30.4</v>
       </c>
       <c r="F67" t="n">
-        <v>55440.6774</v>
+        <v>4441.9218</v>
       </c>
       <c r="G67" t="n">
-        <v>315094.1649032999</v>
+        <v>30.675</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K67" t="n">
+        <v>30.7</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31.7</v>
+        <v>30.4</v>
       </c>
       <c r="C68" t="n">
-        <v>31.7</v>
+        <v>30.4</v>
       </c>
       <c r="D68" t="n">
-        <v>31.7</v>
+        <v>30.4</v>
       </c>
       <c r="E68" t="n">
-        <v>31.7</v>
+        <v>30.4</v>
       </c>
       <c r="F68" t="n">
-        <v>36777.3917</v>
+        <v>2531.7745</v>
       </c>
       <c r="G68" t="n">
-        <v>315094.1649032999</v>
+        <v>30.65</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,348 +2842,432 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.7</v>
+        <v>30.3</v>
       </c>
       <c r="C69" t="n">
-        <v>31.7</v>
+        <v>30.3</v>
       </c>
       <c r="D69" t="n">
-        <v>31.7</v>
+        <v>30.3</v>
       </c>
       <c r="E69" t="n">
-        <v>31.7</v>
+        <v>30.3</v>
       </c>
       <c r="F69" t="n">
-        <v>22952.6448</v>
+        <v>31059.2739</v>
       </c>
       <c r="G69" t="n">
-        <v>315094.1649032999</v>
+        <v>30.635</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31.8</v>
+        <v>30.3</v>
       </c>
       <c r="C70" t="n">
-        <v>31.8</v>
+        <v>30.3</v>
       </c>
       <c r="D70" t="n">
-        <v>31.8</v>
+        <v>30.3</v>
       </c>
       <c r="E70" t="n">
-        <v>31.8</v>
+        <v>30.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1344.0566</v>
+        <v>2226.3382</v>
       </c>
       <c r="G70" t="n">
-        <v>316438.2215033</v>
+        <v>30.61999999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>30.3</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="C71" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="D71" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="E71" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="F71" t="n">
-        <v>57387.6822</v>
+        <v>7949.7651</v>
       </c>
       <c r="G71" t="n">
-        <v>259050.5393032999</v>
+        <v>30.60999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="C72" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="D72" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="E72" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="F72" t="n">
-        <v>9572.9162</v>
+        <v>2220.9609</v>
       </c>
       <c r="G72" t="n">
-        <v>268623.4555032999</v>
+        <v>30.59499999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="C73" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="D73" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="E73" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="F73" t="n">
-        <v>11175</v>
+        <v>16879.9274</v>
       </c>
       <c r="G73" t="n">
-        <v>268623.4555032999</v>
+        <v>30.57999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="C74" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="D74" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="E74" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="F74" t="n">
-        <v>150.9926</v>
+        <v>43133.783</v>
       </c>
       <c r="G74" t="n">
-        <v>268623.4555032999</v>
+        <v>30.56</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="C75" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="D75" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="E75" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="F75" t="n">
-        <v>15725.7232</v>
+        <v>34022</v>
       </c>
       <c r="G75" t="n">
-        <v>268623.4555032999</v>
+        <v>30.545</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>31.6</v>
+        <v>30.7</v>
       </c>
       <c r="C76" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="D76" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="E76" t="n">
-        <v>31.6</v>
+        <v>30.7</v>
       </c>
       <c r="F76" t="n">
-        <v>27873.1645</v>
+        <v>2387.7177</v>
       </c>
       <c r="G76" t="n">
-        <v>240750.2910032999</v>
+        <v>30.535</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="C77" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="D77" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="E77" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="F77" t="n">
-        <v>60</v>
+        <v>12100</v>
       </c>
       <c r="G77" t="n">
-        <v>240750.2910032999</v>
+        <v>30.535</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K77" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31.6</v>
+        <v>30.3</v>
       </c>
       <c r="C78" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="D78" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="E78" t="n">
-        <v>31.5</v>
+        <v>30.3</v>
       </c>
       <c r="F78" t="n">
-        <v>116639.441</v>
+        <v>8549.0134</v>
       </c>
       <c r="G78" t="n">
-        <v>124110.8500032999</v>
+        <v>30.51</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3276,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31.5</v>
+        <v>30.7</v>
       </c>
       <c r="C79" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="D79" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="E79" t="n">
-        <v>31.5</v>
+        <v>30.7</v>
       </c>
       <c r="F79" t="n">
-        <v>1054.0013</v>
+        <v>7660.2458</v>
       </c>
       <c r="G79" t="n">
-        <v>124110.8500032999</v>
+        <v>30.50500000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3318,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="C80" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="D80" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="E80" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="F80" t="n">
-        <v>95153.129</v>
+        <v>24409.1232</v>
       </c>
       <c r="G80" t="n">
-        <v>28957.72100329993</v>
+        <v>30.50500000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,68 +3360,84 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="C81" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="D81" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="E81" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="F81" t="n">
-        <v>241050.6803</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-212092.9592967001</v>
+        <v>30.52</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="C82" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="D82" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="E82" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="F82" t="n">
-        <v>50829.0362</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-262921.9954967001</v>
+        <v>30.51000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,291 +3446,370 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C83" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D83" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E83" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F83" t="n">
-        <v>117678.4023</v>
+        <v>41388.6897</v>
       </c>
       <c r="G83" t="n">
-        <v>-380600.3977967001</v>
+        <v>30.51000000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="C84" t="n">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="D84" t="n">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="E84" t="n">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="F84" t="n">
-        <v>400.828</v>
+        <v>32483.8283</v>
       </c>
       <c r="G84" t="n">
-        <v>-380199.5697967001</v>
+        <v>30.50500000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="C85" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="D85" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="E85" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="F85" t="n">
-        <v>17312.7461</v>
+        <v>20398.3856</v>
       </c>
       <c r="G85" t="n">
-        <v>-397512.3158967001</v>
+        <v>30.50000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="C86" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="E86" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="F86" t="n">
-        <v>5210.129</v>
+        <v>98986.4268</v>
       </c>
       <c r="G86" t="n">
-        <v>-392302.1868967001</v>
+        <v>30.485</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="C87" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="D87" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="E87" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="F87" t="n">
-        <v>29173.3224</v>
+        <v>1103.9529</v>
       </c>
       <c r="G87" t="n">
-        <v>-421475.5092967001</v>
+        <v>30.495</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="C88" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="D88" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="E88" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="F88" t="n">
-        <v>49687.43</v>
+        <v>64310.7529</v>
       </c>
       <c r="G88" t="n">
-        <v>-471162.9392967001</v>
+        <v>30.50500000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K88" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="C89" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D89" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="E89" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="F89" t="n">
-        <v>70405.33930000001</v>
+        <v>324.6753</v>
       </c>
       <c r="G89" t="n">
-        <v>-541568.2785967001</v>
+        <v>30.53000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K89" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="C90" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="D90" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="E90" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="F90" t="n">
-        <v>10.3236</v>
+        <v>35058.3111</v>
       </c>
       <c r="G90" t="n">
-        <v>-541557.9549967</v>
+        <v>30.54500000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3560,10 +3828,10 @@
         <v>30.6</v>
       </c>
       <c r="F91" t="n">
-        <v>3000</v>
+        <v>1320</v>
       </c>
       <c r="G91" t="n">
-        <v>-544557.9549967</v>
+        <v>30.55500000000001</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3572,63 +3840,71 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="K91" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>28974.2909</v>
+      </c>
+      <c r="G92" t="n">
+        <v>30.56500000000002</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>30.6</v>
       </c>
-      <c r="C92" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D92" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E92" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-544557.9549967</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="C93" t="n">
         <v>30.7</v>
@@ -3637,13 +3913,13 @@
         <v>30.7</v>
       </c>
       <c r="E93" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="F93" t="n">
-        <v>2478.7963</v>
+        <v>3598.999</v>
       </c>
       <c r="G93" t="n">
-        <v>-542079.1586967</v>
+        <v>30.57500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3652,41 +3928,42 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="K93" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C94" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D94" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E94" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>4889.6742</v>
       </c>
       <c r="G94" t="n">
-        <v>-542069.1586967</v>
+        <v>30.58500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3698,7 +3975,7 @@
         <v>30.7</v>
       </c>
       <c r="K94" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3708,28 +3985,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C95" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D95" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E95" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F95" t="n">
-        <v>7753.5064</v>
+        <v>4056.8078</v>
       </c>
       <c r="G95" t="n">
-        <v>-542069.1586967</v>
+        <v>30.59500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3738,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="K95" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3751,38 +4029,41 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="C96" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="D96" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="E96" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>9093.517900000001</v>
       </c>
       <c r="G96" t="n">
-        <v>-542059.1586967</v>
+        <v>30.59500000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K96" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3792,28 +4073,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C97" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D97" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E97" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F97" t="n">
-        <v>8000</v>
+        <v>18089.6488</v>
       </c>
       <c r="G97" t="n">
-        <v>-550059.1586967</v>
+        <v>30.59000000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,7 +4105,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3833,28 +4115,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="C98" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="D98" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="E98" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>1512.5553</v>
       </c>
       <c r="G98" t="n">
-        <v>-550049.1586967</v>
+        <v>30.61000000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3864,7 +4147,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3874,6 +4157,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3892,20 +4176,22 @@
         <v>30.8</v>
       </c>
       <c r="F99" t="n">
-        <v>36.4936</v>
+        <v>10000</v>
       </c>
       <c r="G99" t="n">
-        <v>-550085.6522967</v>
+        <v>30.61500000000003</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K99" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3915,6 +4201,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3933,20 +4220,22 @@
         <v>30.8</v>
       </c>
       <c r="F100" t="n">
-        <v>324.6753</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="n">
-        <v>-550085.6522967</v>
+        <v>30.63000000000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>30.8</v>
+      </c>
       <c r="K100" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -3956,6 +4245,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3974,20 +4264,22 @@
         <v>30.8</v>
       </c>
       <c r="F101" t="n">
-        <v>10407.5</v>
+        <v>170</v>
       </c>
       <c r="G101" t="n">
-        <v>-550085.6522967</v>
+        <v>30.63000000000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>30.8</v>
+      </c>
       <c r="K101" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -3997,38 +4289,41 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="C102" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D102" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="E102" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="F102" t="n">
-        <v>7377.0096</v>
+        <v>2380.2922</v>
       </c>
       <c r="G102" t="n">
-        <v>-557462.6618967</v>
+        <v>30.64000000000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>30.8</v>
+      </c>
       <c r="K102" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4038,38 +4333,41 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C103" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="D103" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="E103" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="F103" t="n">
-        <v>38027.6925</v>
+        <v>11630</v>
       </c>
       <c r="G103" t="n">
-        <v>-557462.6618967</v>
+        <v>30.65000000000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>30.8</v>
+      </c>
       <c r="K103" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4079,6 +4377,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4088,29 +4387,31 @@
         <v>30.8</v>
       </c>
       <c r="C104" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="E104" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="F104" t="n">
-        <v>4265.699</v>
+        <v>52806.14434709</v>
       </c>
       <c r="G104" t="n">
-        <v>-557462.6618967</v>
+        <v>30.67500000000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K104" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4120,38 +4421,41 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="C105" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="F105" t="n">
-        <v>44948.9923</v>
+        <v>14145.14935291</v>
       </c>
       <c r="G105" t="n">
-        <v>-602411.6541967001</v>
+        <v>30.71000000000003</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>31</v>
+      </c>
       <c r="K105" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4161,38 +4465,41 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="C106" t="n">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="D106" t="n">
-        <v>30.4</v>
+        <v>31.3</v>
       </c>
       <c r="E106" t="n">
-        <v>30.4</v>
+        <v>31.2</v>
       </c>
       <c r="F106" t="n">
-        <v>47200.3153</v>
+        <v>50586.5549</v>
       </c>
       <c r="G106" t="n">
-        <v>-602411.6541967001</v>
+        <v>30.75000000000003</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>31</v>
+      </c>
       <c r="K106" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4202,28 +4509,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="C107" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="D107" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="E107" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="F107" t="n">
-        <v>3835.5818</v>
+        <v>2871.7889</v>
       </c>
       <c r="G107" t="n">
-        <v>-602411.6541967001</v>
+        <v>30.76500000000003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4233,7 +4541,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4243,28 +4551,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="C108" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="D108" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="E108" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="F108" t="n">
-        <v>1950.5537</v>
+        <v>111749.8737</v>
       </c>
       <c r="G108" t="n">
-        <v>-600461.1004967</v>
+        <v>30.79000000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4274,7 +4583,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4284,1730 +4593,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D109" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E109" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4441.9218</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-604903.0222967</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D110" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E110" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2531.7745</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-604903.0222967</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E111" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>31059.2739</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-635962.2961967001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C112" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2226.3382</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-635962.2961967001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7949.7651</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-628012.5310967001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2220.9609</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-625791.5701967002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>16879.9274</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-642671.4975967002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>43133.783</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-599537.7145967002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>34022</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-633559.7145967002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2387.7177</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C119" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D119" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F119" t="n">
-        <v>12100</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D120" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>8549.0134</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C121" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D121" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E121" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>7660.2458</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>24409.1232</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-655581.1200967001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-655571.1200967001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D124" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E124" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-656571.1200967001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C125" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>41388.6897</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-697959.8097967001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>32483.8283</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-730443.6380967002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>20398.3856</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-730443.6380967002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E128" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>98986.4268</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-631457.2112967002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1103.9529</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-630353.2583967001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>64310.7529</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-630353.2583967001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>324.6753</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-630028.5830967001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C132" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>35058.3111</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-665086.8941967002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1320</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-663766.8941967002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>28974.2909</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3598.999</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4889.6742</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4056.8078</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>9093.517900000001</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>18089.6488</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1512.5553</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K142" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>170</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2380.2922</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>11630</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-636422.6032967002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>31</v>
-      </c>
-      <c r="D146" t="n">
-        <v>31</v>
-      </c>
-      <c r="E146" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>52806.14434709</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-583616.4589496101</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>31</v>
-      </c>
-      <c r="C147" t="n">
-        <v>31</v>
-      </c>
-      <c r="D147" t="n">
-        <v>31</v>
-      </c>
-      <c r="E147" t="n">
-        <v>31</v>
-      </c>
-      <c r="F147" t="n">
-        <v>14145.14935291</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-583616.4589496101</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D148" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E148" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>50586.5549</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-533029.9040496101</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C149" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E149" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2871.7889</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-535901.6929496102</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>111749.8737</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-424151.8192496102</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>400731.1444</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>415309.4537</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,1602 +748,1464 @@
         <v>273895.3639</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40947.9125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>314843.2764</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>30.3</v>
       </c>
-      <c r="C12" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="C13" t="n">
         <v>30.3</v>
       </c>
-      <c r="F12" t="n">
-        <v>40947.9125</v>
-      </c>
-      <c r="G12" t="n">
-        <v>314843.2764</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="D13" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60597.9129</v>
+      </c>
+      <c r="G13" t="n">
+        <v>254245.3635</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>30.3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>30.3</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>30.3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>30.3</v>
       </c>
-      <c r="F13" t="n">
-        <v>60597.9129</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F14" t="n">
+        <v>49116.4394</v>
+      </c>
+      <c r="G14" t="n">
         <v>254245.3635</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>30.3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D15" t="n">
         <v>30.3</v>
       </c>
-      <c r="D14" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>49116.4394</v>
-      </c>
-      <c r="G14" t="n">
-        <v>254245.3635</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="E15" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18252.9143</v>
+      </c>
+      <c r="G15" t="n">
+        <v>235992.4492</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>30.2</v>
       </c>
-      <c r="D15" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="C16" t="n">
         <v>30.2</v>
       </c>
-      <c r="F15" t="n">
-        <v>18252.9143</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="D16" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1878.6092</v>
+      </c>
+      <c r="G16" t="n">
         <v>235992.4492</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>30.2</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D17" t="n">
         <v>30.2</v>
       </c>
-      <c r="D16" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1878.6092</v>
-      </c>
-      <c r="G16" t="n">
-        <v>235992.4492</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="E17" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19958.2576</v>
+      </c>
+      <c r="G17" t="n">
+        <v>216034.1916</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>30.1</v>
       </c>
-      <c r="D17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="C18" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E18" t="n">
         <v>30.1</v>
       </c>
-      <c r="F17" t="n">
-        <v>19958.2576</v>
-      </c>
-      <c r="G17" t="n">
-        <v>216034.1916</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="F18" t="n">
+        <v>10330.0330033</v>
+      </c>
+      <c r="G18" t="n">
+        <v>226364.2246033</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10330.0330033</v>
-      </c>
-      <c r="G18" t="n">
-        <v>226364.2246033</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14665.4656</v>
+      </c>
+      <c r="G19" t="n">
+        <v>241029.6902032999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14665.4656</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2060.1323</v>
+      </c>
+      <c r="G20" t="n">
         <v>241029.6902032999</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2060.1323</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16169.1389</v>
+      </c>
+      <c r="G21" t="n">
         <v>241029.6902032999</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16169.1389</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>202.0723</v>
+      </c>
+      <c r="G22" t="n">
         <v>241029.6902032999</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>202.0723</v>
-      </c>
-      <c r="G22" t="n">
-        <v>241029.6902032999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G23" t="n">
+        <v>242249.6902032999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E23" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G23" t="n">
-        <v>242249.6902032999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G24" t="n">
+        <v>243639.6902032999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E24" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1390</v>
-      </c>
-      <c r="G24" t="n">
-        <v>243639.6902032999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>14999.9999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>228639.6903033</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>30.5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>30.5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>30.5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>30.5</v>
       </c>
-      <c r="F25" t="n">
-        <v>14999.9999</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F26" t="n">
+        <v>25898.9508</v>
+      </c>
+      <c r="G26" t="n">
         <v>228639.6903033</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25898.9508</v>
-      </c>
-      <c r="G26" t="n">
-        <v>228639.6903033</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16757.7241</v>
+      </c>
+      <c r="G27" t="n">
+        <v>211881.9662033</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>16757.7241</v>
-      </c>
-      <c r="G27" t="n">
-        <v>211881.9662033</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>17405.4629</v>
+      </c>
+      <c r="G28" t="n">
+        <v>229287.4291033</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C29" t="n">
         <v>30.5</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D29" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E29" t="n">
         <v>30.5</v>
       </c>
-      <c r="D28" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E28" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>17405.4629</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F29" t="n">
+        <v>1969.1656</v>
+      </c>
+      <c r="G29" t="n">
         <v>229287.4291033</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>30.6</v>
       </c>
-      <c r="C29" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C30" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E30" t="n">
         <v>30.6</v>
       </c>
-      <c r="E29" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1969.1656</v>
-      </c>
-      <c r="G29" t="n">
-        <v>229287.4291033</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="F30" t="n">
+        <v>30142.8264</v>
+      </c>
+      <c r="G30" t="n">
+        <v>259430.2555033</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>30.7</v>
       </c>
-      <c r="D30" t="n">
+      <c r="C31" t="n">
         <v>30.7</v>
       </c>
-      <c r="E30" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30142.8264</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="D31" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20339.4924</v>
+      </c>
+      <c r="G31" t="n">
         <v>259430.2555033</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>30.7</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E32" t="n">
         <v>30.7</v>
       </c>
-      <c r="D31" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E31" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20339.4924</v>
-      </c>
-      <c r="G31" t="n">
-        <v>259430.2555033</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="F32" t="n">
+        <v>18297.8916</v>
+      </c>
+      <c r="G32" t="n">
+        <v>277728.1471033</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>18297.8916</v>
-      </c>
-      <c r="G32" t="n">
-        <v>277728.1471033</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>58764.0319</v>
+      </c>
+      <c r="G33" t="n">
+        <v>336492.1790033</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C33" t="n">
-        <v>31</v>
-      </c>
-      <c r="D33" t="n">
-        <v>31</v>
-      </c>
-      <c r="E33" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>58764.0319</v>
-      </c>
-      <c r="G33" t="n">
-        <v>336492.1790033</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5697.9953</v>
+      </c>
+      <c r="G34" t="n">
+        <v>342190.1743033</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C35" t="n">
         <v>31.3</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D35" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E35" t="n">
         <v>31.3</v>
       </c>
-      <c r="D34" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5697.9953</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F35" t="n">
+        <v>17551.9426</v>
+      </c>
+      <c r="G35" t="n">
         <v>342190.1743033</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>31.3</v>
       </c>
-      <c r="D35" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="C36" t="n">
         <v>31.3</v>
       </c>
-      <c r="F35" t="n">
-        <v>17551.9426</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="D36" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1547.8665</v>
+      </c>
+      <c r="G36" t="n">
         <v>342190.1743033</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>31.3</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>31.3</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>31.3</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E37" t="n">
         <v>31.3</v>
       </c>
-      <c r="F36" t="n">
-        <v>1547.8665</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G37" t="n">
         <v>342190.1743033</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>342190.1743033</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6405.677</v>
+      </c>
+      <c r="G38" t="n">
+        <v>348595.8513033</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>6405.677</v>
-      </c>
-      <c r="G38" t="n">
-        <v>348595.8513033</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24748.675</v>
+      </c>
+      <c r="G39" t="n">
+        <v>373344.5263033</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D39" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>24748.675</v>
-      </c>
-      <c r="G39" t="n">
-        <v>373344.5263033</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19746.0614</v>
+      </c>
+      <c r="G40" t="n">
+        <v>393090.5877033</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>31.8</v>
       </c>
-      <c r="D40" t="n">
+      <c r="C41" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D41" t="n">
         <v>31.8</v>
       </c>
-      <c r="E40" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>19746.0614</v>
-      </c>
-      <c r="G40" t="n">
-        <v>393090.5877033</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="E41" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16628.2875</v>
+      </c>
+      <c r="G41" t="n">
+        <v>376462.3002033</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16628.2875</v>
-      </c>
-      <c r="G41" t="n">
-        <v>376462.3002033</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G42" t="n">
+        <v>378472.3002033</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>31.9</v>
       </c>
-      <c r="D42" t="n">
+      <c r="C43" t="n">
         <v>31.9</v>
       </c>
-      <c r="E42" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="D43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>67259.8746</v>
+      </c>
+      <c r="G43" t="n">
         <v>378472.3002033</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>31.9</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>31.9</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>31.9</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E44" t="n">
         <v>31.9</v>
       </c>
-      <c r="F43" t="n">
-        <v>67259.8746</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F44" t="n">
+        <v>8421.2302</v>
+      </c>
+      <c r="G44" t="n">
         <v>378472.3002033</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>31.9</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>31.9</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>31.9</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E45" t="n">
         <v>31.9</v>
       </c>
-      <c r="F44" t="n">
-        <v>8421.2302</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F45" t="n">
+        <v>649.2649</v>
+      </c>
+      <c r="G45" t="n">
         <v>378472.3002033</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>31.9</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
+        <v>32</v>
+      </c>
+      <c r="D46" t="n">
+        <v>32</v>
+      </c>
+      <c r="E46" t="n">
         <v>31.9</v>
       </c>
-      <c r="D45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>649.2649</v>
-      </c>
-      <c r="G45" t="n">
-        <v>378472.3002033</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="F46" t="n">
+        <v>1270.1167</v>
+      </c>
+      <c r="G46" t="n">
+        <v>379742.4169033</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32</v>
+      </c>
+      <c r="C47" t="n">
         <v>31.9</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D47" t="n">
         <v>32</v>
       </c>
-      <c r="D46" t="n">
-        <v>32</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="E47" t="n">
         <v>31.9</v>
       </c>
-      <c r="F46" t="n">
-        <v>1270.1167</v>
-      </c>
-      <c r="G46" t="n">
-        <v>379742.4169033</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="F47" t="n">
+        <v>85041.6272</v>
+      </c>
+      <c r="G47" t="n">
+        <v>294700.7897033</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>32</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>31.9</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>32</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E48" t="n">
         <v>31.9</v>
       </c>
-      <c r="F47" t="n">
-        <v>85041.6272</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F48" t="n">
+        <v>44142.4592</v>
+      </c>
+      <c r="G48" t="n">
         <v>294700.7897033</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>32</v>
-      </c>
-      <c r="C48" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>32</v>
-      </c>
-      <c r="E48" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F48" t="n">
-        <v>44142.4592</v>
-      </c>
-      <c r="G48" t="n">
-        <v>294700.7897033</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="n">
+        <v>294710.7897033</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10</v>
-      </c>
-      <c r="G49" t="n">
-        <v>294710.7897033</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>32</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32</v>
+      </c>
+      <c r="E50" t="n">
+        <v>32</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25722.6157</v>
+      </c>
+      <c r="G50" t="n">
+        <v>268988.1740033</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>32</v>
-      </c>
-      <c r="C50" t="n">
-        <v>32</v>
-      </c>
-      <c r="D50" t="n">
-        <v>32</v>
-      </c>
-      <c r="E50" t="n">
-        <v>32</v>
-      </c>
-      <c r="F50" t="n">
-        <v>25722.6157</v>
-      </c>
-      <c r="G50" t="n">
-        <v>268988.1740033</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2400,22 +2230,17 @@
         <v>268988.1740033</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2440,22 +2265,15 @@
         <v>268988.1740033</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2480,22 +2298,15 @@
         <v>261824.1620033</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,22 +2331,15 @@
         <v>261123.3284033</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2562,20 +2366,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2602,20 +2399,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2642,20 +2432,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2682,18 +2465,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L58" t="n">
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2720,16 +2498,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2756,16 +2531,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2792,16 +2564,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2828,16 +2597,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2864,16 +2630,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,16 +2663,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2936,16 +2696,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2970,18 +2727,15 @@
         <v>222873.4427033</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3008,16 +2762,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3044,16 +2795,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3080,16 +2828,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3114,18 +2859,15 @@
         <v>236015.2313033</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3150,18 +2892,15 @@
         <v>236025.2313033</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3188,16 +2927,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3222,18 +2958,15 @@
         <v>232739.2313033</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3258,18 +2991,15 @@
         <v>309153.8872033</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3296,16 +3026,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3332,16 +3059,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3368,16 +3092,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3404,16 +3125,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3440,16 +3158,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3476,16 +3191,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3512,16 +3224,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3548,16 +3257,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3584,16 +3290,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3620,16 +3323,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3656,16 +3356,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3692,16 +3389,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3728,16 +3422,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3764,16 +3455,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3800,16 +3488,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3836,16 +3521,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3872,16 +3554,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3908,16 +3587,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3944,16 +3620,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3980,16 +3653,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4016,16 +3686,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4052,16 +3719,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4088,16 +3752,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4124,16 +3785,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4160,16 +3818,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4196,16 +3851,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4232,16 +3884,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4268,16 +3917,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4304,16 +3950,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4340,16 +3983,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4376,16 +4016,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4412,16 +4049,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4448,16 +4082,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4484,16 +4115,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4520,16 +4148,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4556,16 +4181,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4592,16 +4214,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4628,16 +4247,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4664,16 +4280,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4700,16 +4313,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4736,16 +4346,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4772,16 +4379,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4808,16 +4412,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4844,16 +4445,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4880,16 +4478,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4916,16 +4511,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4952,16 +4544,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4988,16 +4577,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5024,16 +4610,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5060,16 +4643,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5096,16 +4676,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5132,16 +4709,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5168,16 +4742,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5204,16 +4775,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5240,16 +4808,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5276,16 +4841,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5312,16 +4874,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5348,16 +4907,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5384,16 +4940,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5420,16 +4973,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5456,16 +5006,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5492,16 +5039,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5528,16 +5072,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5564,16 +5105,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5600,16 +5138,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5636,16 +5171,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5672,16 +5204,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5708,16 +5237,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5744,16 +5270,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5780,16 +5303,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5816,16 +5336,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5852,16 +5369,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5888,16 +5402,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5924,16 +5435,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5960,16 +5468,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5996,16 +5501,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6032,16 +5534,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6068,16 +5567,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6104,16 +5600,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6140,16 +5633,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6176,16 +5666,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6212,16 +5699,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6248,16 +5732,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6284,16 +5765,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6320,16 +5798,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6356,16 +5831,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6392,16 +5864,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6428,16 +5897,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6464,16 +5930,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6500,16 +5963,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6536,16 +5996,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6572,16 +6029,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6608,16 +6062,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6642,22 +6093,15 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6682,26 +6126,15 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6726,26 +6159,15 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K170" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6770,22 +6192,15 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K171" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6810,26 +6225,15 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6854,26 +6258,15 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6898,22 +6291,15 @@
         <v>-636422.6032967002</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K174" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6938,26 +6324,15 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K175" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6982,26 +6357,15 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>31</v>
-      </c>
-      <c r="K176" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7026,26 +6390,15 @@
         <v>-533029.9040496101</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>31</v>
-      </c>
-      <c r="K177" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7072,22 +6425,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7114,24 +6458,15 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>400731.1444</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>415309.4537</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -781,17 +781,11 @@
         <v>314843.2764</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -820,17 +814,11 @@
         <v>254245.3635</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -859,17 +847,11 @@
         <v>254245.3635</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -902,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -939,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -976,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1013,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1087,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1124,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1161,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1198,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1235,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1272,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1346,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1383,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1420,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1494,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1605,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1642,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1716,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1753,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1790,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1901,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1938,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1975,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2012,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2049,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2086,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2123,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2160,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2197,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2230,16 +2068,14 @@
         <v>268988.1740033</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2265,7 +2101,7 @@
         <v>268988.1740033</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2298,7 +2134,7 @@
         <v>261824.1620033</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2331,7 +2167,7 @@
         <v>261123.3284033</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2496,7 +2332,7 @@
         <v>264691.5084033</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2529,7 +2365,7 @@
         <v>264691.5084033</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2562,7 +2398,7 @@
         <v>264591.5084033</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2595,7 +2431,7 @@
         <v>264591.5084033</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2628,7 +2464,7 @@
         <v>258251.2714033</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2661,7 +2497,7 @@
         <v>258251.2714033</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2694,7 +2530,7 @@
         <v>258261.2714033</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2727,7 +2563,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2760,7 +2596,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2793,7 +2629,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2826,7 +2662,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2859,7 +2695,7 @@
         <v>236015.2313033</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2892,7 +2728,7 @@
         <v>236025.2313033</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2925,7 +2761,7 @@
         <v>236025.2313033</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2958,7 +2794,7 @@
         <v>232739.2313033</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2991,7 +2827,7 @@
         <v>309153.8872033</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3321,7 +3157,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3354,7 +3190,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3387,7 +3223,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3420,7 +3256,7 @@
         <v>371280.4546033</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3453,7 +3289,7 @@
         <v>371110.4546033</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3486,7 +3322,7 @@
         <v>371506.2264033</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3519,7 +3355,7 @@
         <v>371336.2264033</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3552,7 +3388,7 @@
         <v>371416.2264033</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3585,7 +3421,7 @@
         <v>371426.2264033</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3618,7 +3454,7 @@
         <v>370534.8423032999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3651,7 +3487,7 @@
         <v>370534.8423032999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3684,7 +3520,7 @@
         <v>370534.8423032999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3717,7 +3553,7 @@
         <v>315094.1649032999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3750,7 +3586,7 @@
         <v>315094.1649032999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3783,7 +3619,7 @@
         <v>315094.1649032999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3816,7 +3652,7 @@
         <v>316438.2215033</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3849,7 +3685,7 @@
         <v>259050.5393032999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3882,7 +3718,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3915,7 +3751,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3948,7 +3784,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3981,7 +3817,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4014,7 +3850,7 @@
         <v>240750.2910032999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4047,7 +3883,7 @@
         <v>240750.2910032999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4080,7 +3916,7 @@
         <v>124110.8500032999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4113,7 +3949,7 @@
         <v>124110.8500032999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4146,7 +3982,7 @@
         <v>28957.72100329993</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4179,7 +4015,7 @@
         <v>-212092.9592967001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4212,7 +4048,7 @@
         <v>-262921.9954967001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4245,7 +4081,7 @@
         <v>-380600.3977967001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4278,7 +4114,7 @@
         <v>-380199.5697967001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4311,7 +4147,7 @@
         <v>-397512.3158967001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4344,7 +4180,7 @@
         <v>-392302.1868967001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4410,7 +4246,7 @@
         <v>-471162.9392967001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4443,7 +4279,7 @@
         <v>-541568.2785967001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5730,10 +5566,14 @@
         <v>-631457.2112967002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>30.3</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5766,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +5642,19 @@
         <v>-630353.2583967001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J159" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5961,10 +5815,14 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J164" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5994,11 +5852,19 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J165" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5893,19 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6060,10 +5934,14 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -6093,11 +5971,19 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6126,11 +6012,19 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6159,10 +6053,14 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J170" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6192,11 +6090,19 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J171" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +6131,19 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6258,10 +6172,14 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J173" t="n">
+        <v>30.8</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6291,11 +6209,19 @@
         <v>-636422.6032967002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J174" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +6250,19 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6291,19 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>31</v>
+      </c>
+      <c r="J176" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6332,19 @@
         <v>-533029.9040496101</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>31</v>
+      </c>
+      <c r="J177" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6426,8 +6376,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6459,14 +6415,20 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>264945.2734033</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>264691.5084033</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>264691.5084033</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>264591.5084033</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>264591.5084033</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>258251.2714033</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>258251.2714033</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>258261.2714033</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>222873.4427033</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>236015.2313033</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>236025.2313033</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>236025.2313033</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>232739.2313033</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>309153.8872033</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>371280.4546033</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>371110.4546033</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>371506.2264033</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>371336.2264033</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>371416.2264033</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>371426.2264033</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>370534.8423032999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>370534.8423032999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>370534.8423032999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>315094.1649032999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>315094.1649032999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>315094.1649032999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>316438.2215033</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>259050.5393032999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>268623.4555032999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>240750.2910032999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>240750.2910032999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>124110.8500032999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>124110.8500032999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>28957.72100329993</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-212092.9592967001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-262921.9954967001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-380600.3977967001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-380199.5697967001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-397512.3158967001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-392302.1868967001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-471162.9392967001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-541568.2785967001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5566,14 +5566,10 @@
         <v>-631457.2112967002</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J157" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
@@ -5606,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5642,19 +5632,11 @@
         <v>-630353.2583967001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J159" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5797,10 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5852,97 +5830,87 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4056.8078</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9093.517900000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4056.8078</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9093.517900000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6020,48 +5988,48 @@
       <c r="J169" t="n">
         <v>30.7</v>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J170" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C170" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D170" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F170" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J170" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6137,50 +6105,48 @@
         <v>30.8</v>
       </c>
       <c r="J172" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>30.8</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2380.2922</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2380.2922</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6256,13 +6222,9 @@
         <v>30.7</v>
       </c>
       <c r="J175" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>30.7</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6291,17 +6253,15 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6332,17 +6292,15 @@
         <v>-533029.9040496101</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6376,14 +6334,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6415,20 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -1804,7 +1804,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>378472.3002033</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>264945.2734033</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>236025.2313033</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>232739.2313033</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>373595.7137033</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>423265.7950033</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>421218.3056033</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>366300.9912033</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>365500.2046033</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -5863,14 +5863,10 @@
         <v>-634792.6032967002</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
@@ -5903,92 +5899,86 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18089.6488</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1512.5553</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-634792.6032967002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F168" t="n">
-        <v>18089.6488</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1512.5553</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6064,50 +6054,50 @@
         <v>30.8</v>
       </c>
       <c r="J171" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>30.8</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>170</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-624792.6032967002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F172" t="n">
-        <v>170</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6136,9 +6126,11 @@
         <v>-624792.6032967002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J173" t="n">
         <v>30.8</v>
       </c>
@@ -6183,11 +6175,7 @@
       <c r="J174" t="n">
         <v>30.8</v>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6222,9 +6210,13 @@
         <v>30.7</v>
       </c>
       <c r="J175" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+        <v>30.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6253,15 +6245,17 @@
         <v>-583616.4589496101</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>31</v>
+      </c>
       <c r="J176" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6292,15 +6286,17 @@
         <v>-533029.9040496101</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>31</v>
+      </c>
       <c r="J177" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6334,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6364,11 +6366,19 @@
         <v>-424151.8192496102</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest WAX.xlsx
+++ b/BackTest/2019-10-29 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>80676.5812</v>
       </c>
       <c r="G2" t="n">
-        <v>476997.5531</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>76266.4087</v>
       </c>
       <c r="G3" t="n">
-        <v>400731.1444</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>14578.3093</v>
       </c>
       <c r="G4" t="n">
-        <v>415309.4537</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>34567.5741</v>
       </c>
       <c r="G5" t="n">
-        <v>380741.8796</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>14377.2632</v>
       </c>
       <c r="G6" t="n">
-        <v>366364.6164</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>22145.8176</v>
       </c>
       <c r="G7" t="n">
-        <v>366364.6164</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>22828.3498</v>
       </c>
       <c r="G8" t="n">
-        <v>343536.2666</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>8792.928900000001</v>
       </c>
       <c r="G9" t="n">
-        <v>343536.2666</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>12808.8273</v>
       </c>
       <c r="G10" t="n">
-        <v>356345.0939</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>82449.73</v>
       </c>
       <c r="G11" t="n">
-        <v>273895.3639</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>40947.9125</v>
       </c>
       <c r="G12" t="n">
-        <v>314843.2764</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,19 @@
         <v>60597.9129</v>
       </c>
       <c r="G13" t="n">
-        <v>254245.3635</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>30.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +807,23 @@
         <v>49116.4394</v>
       </c>
       <c r="G14" t="n">
-        <v>254245.3635</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +845,23 @@
         <v>18252.9143</v>
       </c>
       <c r="G15" t="n">
-        <v>235992.4492</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +883,23 @@
         <v>1878.6092</v>
       </c>
       <c r="G16" t="n">
-        <v>235992.4492</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>30.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +921,23 @@
         <v>19958.2576</v>
       </c>
       <c r="G17" t="n">
-        <v>216034.1916</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>30.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,21 @@
         <v>10330.0330033</v>
       </c>
       <c r="G18" t="n">
-        <v>226364.2246033</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +995,21 @@
         <v>14665.4656</v>
       </c>
       <c r="G19" t="n">
-        <v>241029.6902032999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1031,21 @@
         <v>2060.1323</v>
       </c>
       <c r="G20" t="n">
-        <v>241029.6902032999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1067,21 @@
         <v>16169.1389</v>
       </c>
       <c r="G21" t="n">
-        <v>241029.6902032999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1103,21 @@
         <v>202.0723</v>
       </c>
       <c r="G22" t="n">
-        <v>241029.6902032999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1139,21 @@
         <v>1220</v>
       </c>
       <c r="G23" t="n">
-        <v>242249.6902032999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1175,21 @@
         <v>1390</v>
       </c>
       <c r="G24" t="n">
-        <v>243639.6902032999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1211,21 @@
         <v>14999.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>228639.6903033</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1247,21 @@
         <v>25898.9508</v>
       </c>
       <c r="G26" t="n">
-        <v>228639.6903033</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1283,21 @@
         <v>16757.7241</v>
       </c>
       <c r="G27" t="n">
-        <v>211881.9662033</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1319,21 @@
         <v>17405.4629</v>
       </c>
       <c r="G28" t="n">
-        <v>229287.4291033</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1355,21 @@
         <v>1969.1656</v>
       </c>
       <c r="G29" t="n">
-        <v>229287.4291033</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1391,21 @@
         <v>30142.8264</v>
       </c>
       <c r="G30" t="n">
-        <v>259430.2555033</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1427,21 @@
         <v>20339.4924</v>
       </c>
       <c r="G31" t="n">
-        <v>259430.2555033</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1463,21 @@
         <v>18297.8916</v>
       </c>
       <c r="G32" t="n">
-        <v>277728.1471033</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1499,21 @@
         <v>58764.0319</v>
       </c>
       <c r="G33" t="n">
-        <v>336492.1790033</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1535,21 @@
         <v>5697.9953</v>
       </c>
       <c r="G34" t="n">
-        <v>342190.1743033</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1571,21 @@
         <v>17551.9426</v>
       </c>
       <c r="G35" t="n">
-        <v>342190.1743033</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1607,21 @@
         <v>1547.8665</v>
       </c>
       <c r="G36" t="n">
-        <v>342190.1743033</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1643,21 @@
         <v>3000</v>
       </c>
       <c r="G37" t="n">
-        <v>342190.1743033</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1679,21 @@
         <v>6405.677</v>
       </c>
       <c r="G38" t="n">
-        <v>348595.8513033</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1715,21 @@
         <v>24748.675</v>
       </c>
       <c r="G39" t="n">
-        <v>373344.5263033</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1751,21 @@
         <v>19746.0614</v>
       </c>
       <c r="G40" t="n">
-        <v>393090.5877033</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1787,21 @@
         <v>16628.2875</v>
       </c>
       <c r="G41" t="n">
-        <v>376462.3002033</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1823,21 @@
         <v>2010</v>
       </c>
       <c r="G42" t="n">
-        <v>378472.3002033</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1859,21 @@
         <v>67259.8746</v>
       </c>
       <c r="G43" t="n">
-        <v>378472.3002033</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1895,21 @@
         <v>8421.2302</v>
       </c>
       <c r="G44" t="n">
-        <v>378472.3002033</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1931,21 @@
         <v>649.2649</v>
       </c>
       <c r="G45" t="n">
-        <v>378472.3002033</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1.044342105263158</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1967,15 @@
         <v>1270.1167</v>
       </c>
       <c r="G46" t="n">
-        <v>379742.4169033</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1997,15 @@
         <v>85041.6272</v>
       </c>
       <c r="G47" t="n">
-        <v>294700.7897033</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2027,15 @@
         <v>44142.4592</v>
       </c>
       <c r="G48" t="n">
-        <v>294700.7897033</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2057,15 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>294710.7897033</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2087,15 @@
         <v>25722.6157</v>
       </c>
       <c r="G50" t="n">
-        <v>268988.1740033</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2117,15 @@
         <v>10757.1476</v>
       </c>
       <c r="G51" t="n">
-        <v>268988.1740033</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2147,15 @@
         <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>268988.1740033</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2177,15 @@
         <v>7164.012</v>
       </c>
       <c r="G53" t="n">
-        <v>261824.1620033</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2207,15 @@
         <v>700.8336</v>
       </c>
       <c r="G54" t="n">
-        <v>261123.3284033</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2237,15 @@
         <v>8909.262500000001</v>
       </c>
       <c r="G55" t="n">
-        <v>252214.0659033</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2267,15 @@
         <v>7003.02</v>
       </c>
       <c r="G56" t="n">
-        <v>259217.0859033</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2297,15 @@
         <v>5728.1875</v>
       </c>
       <c r="G57" t="n">
-        <v>264945.2734033</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2327,15 @@
         <v>1253.765</v>
       </c>
       <c r="G58" t="n">
-        <v>263691.5084033</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2357,15 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>264691.5084033</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2387,15 @@
         <v>970.0312</v>
       </c>
       <c r="G60" t="n">
-        <v>264691.5084033</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2417,15 @@
         <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>264591.5084033</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2447,15 @@
         <v>50</v>
       </c>
       <c r="G62" t="n">
-        <v>264591.5084033</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2477,15 @@
         <v>6340.237</v>
       </c>
       <c r="G63" t="n">
-        <v>258251.2714033</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2507,15 @@
         <v>16695.8211</v>
       </c>
       <c r="G64" t="n">
-        <v>258251.2714033</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2537,15 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>258261.2714033</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2567,15 @@
         <v>35387.8287</v>
       </c>
       <c r="G66" t="n">
-        <v>222873.4427033</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2597,15 @@
         <v>15421.2317</v>
       </c>
       <c r="G67" t="n">
-        <v>222873.4427033</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2627,15 @@
         <v>17671.6398</v>
       </c>
       <c r="G68" t="n">
-        <v>222873.4427033</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2657,15 @@
         <v>7506.1433</v>
       </c>
       <c r="G69" t="n">
-        <v>222873.4427033</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2687,15 @@
         <v>13141.7886</v>
       </c>
       <c r="G70" t="n">
-        <v>236015.2313033</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2717,15 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>236025.2313033</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2747,15 @@
         <v>38123</v>
       </c>
       <c r="G72" t="n">
-        <v>236025.2313033</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2777,15 @@
         <v>3286</v>
       </c>
       <c r="G73" t="n">
-        <v>232739.2313033</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2807,15 @@
         <v>76414.6559</v>
       </c>
       <c r="G74" t="n">
-        <v>309153.8872033</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2837,15 @@
         <v>64441.8265</v>
       </c>
       <c r="G75" t="n">
-        <v>373595.7137033</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2867,15 @@
         <v>51756.0096</v>
       </c>
       <c r="G76" t="n">
-        <v>373595.7137033</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2897,15 @@
         <v>8332.9377</v>
       </c>
       <c r="G77" t="n">
-        <v>373595.7137033</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2927,15 @@
         <v>49670.0813</v>
       </c>
       <c r="G78" t="n">
-        <v>423265.7950033</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2957,15 @@
         <v>2047.4894</v>
       </c>
       <c r="G79" t="n">
-        <v>421218.3056033</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2987,15 @@
         <v>27302.8842</v>
       </c>
       <c r="G80" t="n">
-        <v>421218.3056033</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3017,15 @@
         <v>11631.1738</v>
       </c>
       <c r="G81" t="n">
-        <v>421218.3056033</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3047,15 @@
         <v>3200</v>
       </c>
       <c r="G82" t="n">
-        <v>421218.3056033</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3077,15 @@
         <v>54917.3144</v>
       </c>
       <c r="G83" t="n">
-        <v>366300.9912033</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3107,15 @@
         <v>800.7866</v>
       </c>
       <c r="G84" t="n">
-        <v>365500.2046033</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3137,15 @@
         <v>4473.161</v>
       </c>
       <c r="G85" t="n">
-        <v>365500.2046033</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3167,15 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>365500.2046033</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3197,15 @@
         <v>5780.25</v>
       </c>
       <c r="G87" t="n">
-        <v>371280.4546033</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3227,15 @@
         <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>371110.4546033</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3257,15 @@
         <v>395.7718</v>
       </c>
       <c r="G89" t="n">
-        <v>371506.2264033</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3287,15 @@
         <v>170</v>
       </c>
       <c r="G90" t="n">
-        <v>371336.2264033</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3317,15 @@
         <v>80</v>
       </c>
       <c r="G91" t="n">
-        <v>371416.2264033</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3347,15 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>371426.2264033</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3377,15 @@
         <v>891.3841</v>
       </c>
       <c r="G93" t="n">
-        <v>370534.8423032999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3407,15 @@
         <v>7408.4558</v>
       </c>
       <c r="G94" t="n">
-        <v>370534.8423032999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3437,15 @@
         <v>27773</v>
       </c>
       <c r="G95" t="n">
-        <v>370534.8423032999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3467,15 @@
         <v>55440.6774</v>
       </c>
       <c r="G96" t="n">
-        <v>315094.1649032999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3497,15 @@
         <v>36777.3917</v>
       </c>
       <c r="G97" t="n">
-        <v>315094.1649032999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3527,15 @@
         <v>22952.6448</v>
       </c>
       <c r="G98" t="n">
-        <v>315094.1649032999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3557,15 @@
         <v>1344.0566</v>
       </c>
       <c r="G99" t="n">
-        <v>316438.2215033</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3587,15 @@
         <v>57387.6822</v>
       </c>
       <c r="G100" t="n">
-        <v>259050.5393032999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3617,15 @@
         <v>9572.9162</v>
       </c>
       <c r="G101" t="n">
-        <v>268623.4555032999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3647,15 @@
         <v>11175</v>
       </c>
       <c r="G102" t="n">
-        <v>268623.4555032999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3677,15 @@
         <v>150.9926</v>
       </c>
       <c r="G103" t="n">
-        <v>268623.4555032999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3707,15 @@
         <v>15725.7232</v>
       </c>
       <c r="G104" t="n">
-        <v>268623.4555032999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3737,15 @@
         <v>27873.1645</v>
       </c>
       <c r="G105" t="n">
-        <v>240750.2910032999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3767,15 @@
         <v>60</v>
       </c>
       <c r="G106" t="n">
-        <v>240750.2910032999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3797,15 @@
         <v>116639.441</v>
       </c>
       <c r="G107" t="n">
-        <v>124110.8500032999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3827,15 @@
         <v>1054.0013</v>
       </c>
       <c r="G108" t="n">
-        <v>124110.8500032999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3857,15 @@
         <v>95153.129</v>
       </c>
       <c r="G109" t="n">
-        <v>28957.72100329993</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3887,15 @@
         <v>241050.6803</v>
       </c>
       <c r="G110" t="n">
-        <v>-212092.9592967001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3917,15 @@
         <v>50829.0362</v>
       </c>
       <c r="G111" t="n">
-        <v>-262921.9954967001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3947,15 @@
         <v>117678.4023</v>
       </c>
       <c r="G112" t="n">
-        <v>-380600.3977967001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3977,15 @@
         <v>400.828</v>
       </c>
       <c r="G113" t="n">
-        <v>-380199.5697967001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4007,15 @@
         <v>17312.7461</v>
       </c>
       <c r="G114" t="n">
-        <v>-397512.3158967001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4037,15 @@
         <v>5210.129</v>
       </c>
       <c r="G115" t="n">
-        <v>-392302.1868967001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4067,15 @@
         <v>29173.3224</v>
       </c>
       <c r="G116" t="n">
-        <v>-421475.5092967001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4097,15 @@
         <v>49687.43</v>
       </c>
       <c r="G117" t="n">
-        <v>-471162.9392967001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4127,15 @@
         <v>70405.33930000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-541568.2785967001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4157,15 @@
         <v>10.3236</v>
       </c>
       <c r="G119" t="n">
-        <v>-541557.9549967</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4187,15 @@
         <v>3000</v>
       </c>
       <c r="G120" t="n">
-        <v>-544557.9549967</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4217,15 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-544557.9549967</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4247,15 @@
         <v>2478.7963</v>
       </c>
       <c r="G122" t="n">
-        <v>-542079.1586967</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4277,15 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>-542069.1586967</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4307,15 @@
         <v>7753.5064</v>
       </c>
       <c r="G124" t="n">
-        <v>-542069.1586967</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4337,15 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-542059.1586967</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4367,15 @@
         <v>8000</v>
       </c>
       <c r="G126" t="n">
-        <v>-550059.1586967</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4397,15 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>-550049.1586967</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4427,15 @@
         <v>36.4936</v>
       </c>
       <c r="G128" t="n">
-        <v>-550085.6522967</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4457,15 @@
         <v>324.6753</v>
       </c>
       <c r="G129" t="n">
-        <v>-550085.6522967</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4487,15 @@
         <v>10407.5</v>
       </c>
       <c r="G130" t="n">
-        <v>-550085.6522967</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4517,15 @@
         <v>7377.0096</v>
       </c>
       <c r="G131" t="n">
-        <v>-557462.6618967</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4547,15 @@
         <v>38027.6925</v>
       </c>
       <c r="G132" t="n">
-        <v>-557462.6618967</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4577,15 @@
         <v>4265.699</v>
       </c>
       <c r="G133" t="n">
-        <v>-557462.6618967</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4607,15 @@
         <v>44948.9923</v>
       </c>
       <c r="G134" t="n">
-        <v>-602411.6541967001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4637,15 @@
         <v>47200.3153</v>
       </c>
       <c r="G135" t="n">
-        <v>-602411.6541967001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4667,19 @@
         <v>3835.5818</v>
       </c>
       <c r="G136" t="n">
-        <v>-602411.6541967001</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>30.4</v>
+      </c>
+      <c r="I136" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4701,21 @@
         <v>1950.5537</v>
       </c>
       <c r="G137" t="n">
-        <v>-600461.1004967</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4737,21 @@
         <v>4441.9218</v>
       </c>
       <c r="G138" t="n">
-        <v>-604903.0222967</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4773,15 @@
         <v>2531.7745</v>
       </c>
       <c r="G139" t="n">
-        <v>-604903.0222967</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4803,15 @@
         <v>31059.2739</v>
       </c>
       <c r="G140" t="n">
-        <v>-635962.2961967001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4833,19 @@
         <v>2226.3382</v>
       </c>
       <c r="G141" t="n">
-        <v>-635962.2961967001</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4867,23 @@
         <v>7949.7651</v>
       </c>
       <c r="G142" t="n">
-        <v>-628012.5310967001</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4905,23 @@
         <v>2220.9609</v>
       </c>
       <c r="G143" t="n">
-        <v>-625791.5701967002</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>30.4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4943,23 @@
         <v>16879.9274</v>
       </c>
       <c r="G144" t="n">
-        <v>-642671.4975967002</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="I144" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4981,21 @@
         <v>43133.783</v>
       </c>
       <c r="G145" t="n">
-        <v>-599537.7145967002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5017,21 @@
         <v>34022</v>
       </c>
       <c r="G146" t="n">
-        <v>-633559.7145967002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5053,21 @@
         <v>2387.7177</v>
       </c>
       <c r="G147" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5089,21 @@
         <v>12100</v>
       </c>
       <c r="G148" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5125,21 @@
         <v>8549.0134</v>
       </c>
       <c r="G149" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5161,21 @@
         <v>7660.2458</v>
       </c>
       <c r="G150" t="n">
-        <v>-631171.9968967001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5197,21 @@
         <v>24409.1232</v>
       </c>
       <c r="G151" t="n">
-        <v>-655581.1200967001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5233,21 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>-655571.1200967001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5269,21 @@
         <v>1000</v>
       </c>
       <c r="G153" t="n">
-        <v>-656571.1200967001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5305,21 @@
         <v>41388.6897</v>
       </c>
       <c r="G154" t="n">
-        <v>-697959.8097967001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5341,21 @@
         <v>32483.8283</v>
       </c>
       <c r="G155" t="n">
-        <v>-730443.6380967002</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5377,21 @@
         <v>20398.3856</v>
       </c>
       <c r="G156" t="n">
-        <v>-730443.6380967002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5413,21 @@
         <v>98986.4268</v>
       </c>
       <c r="G157" t="n">
-        <v>-631457.2112967002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5449,21 @@
         <v>1103.9529</v>
       </c>
       <c r="G158" t="n">
-        <v>-630353.2583967001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5485,21 @@
         <v>64310.7529</v>
       </c>
       <c r="G159" t="n">
-        <v>-630353.2583967001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5521,21 @@
         <v>324.6753</v>
       </c>
       <c r="G160" t="n">
-        <v>-630028.5830967001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5557,21 @@
         <v>35058.3111</v>
       </c>
       <c r="G161" t="n">
-        <v>-665086.8941967002</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5593,21 @@
         <v>1320</v>
       </c>
       <c r="G162" t="n">
-        <v>-663766.8941967002</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5629,21 @@
         <v>28974.2909</v>
       </c>
       <c r="G163" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5665,21 @@
         <v>3598.999</v>
       </c>
       <c r="G164" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5701,21 @@
         <v>4889.6742</v>
       </c>
       <c r="G165" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5737,21 @@
         <v>4056.8078</v>
       </c>
       <c r="G166" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5773,21 @@
         <v>9093.517900000001</v>
       </c>
       <c r="G167" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,22 +5809,21 @@
         <v>18089.6488</v>
       </c>
       <c r="G168" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5963,26 +5845,21 @@
         <v>1512.5553</v>
       </c>
       <c r="G169" t="n">
-        <v>-634792.6032967002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J169" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6004,26 +5881,21 @@
         <v>10000</v>
       </c>
       <c r="G170" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J170" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6045,22 +5917,21 @@
         <v>2000</v>
       </c>
       <c r="G171" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J171" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6082,26 +5953,21 @@
         <v>170</v>
       </c>
       <c r="G172" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6123,26 +5989,21 @@
         <v>2380.2922</v>
       </c>
       <c r="G173" t="n">
-        <v>-624792.6032967002</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6164,22 +6025,21 @@
         <v>11630</v>
       </c>
       <c r="G174" t="n">
-        <v>-636422.6032967002</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J174" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6201,26 +6061,21 @@
         <v>52806.14434709</v>
       </c>
       <c r="G175" t="n">
-        <v>-583616.4589496101</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J175" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6242,26 +6097,21 @@
         <v>14145.14935291</v>
       </c>
       <c r="G176" t="n">
-        <v>-583616.4589496101</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>31</v>
-      </c>
-      <c r="J176" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6283,26 +6133,21 @@
         <v>50586.5549</v>
       </c>
       <c r="G177" t="n">
-        <v>-533029.9040496101</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>31</v>
-      </c>
-      <c r="J177" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6324,24 +6169,21 @@
         <v>2871.7889</v>
       </c>
       <c r="G178" t="n">
-        <v>-535901.6929496102</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6363,26 +6205,21 @@
         <v>111749.8737</v>
       </c>
       <c r="G179" t="n">
-        <v>-424151.8192496102</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
